--- a/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_42_.xlsx
+++ b/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_42_.xlsx
@@ -105,13 +105,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -142,8 +165,130 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -331,13 +476,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -368,8 +543,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -557,13 +889,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -594,8 +956,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -783,7 +1302,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB101"/>
+  <dimension ref="A1:AA101"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -812,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="67.98988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="67.98988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="53.68988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1044,7 +1563,7 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-08-29T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1066,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1471760</v>
       </c>
@@ -1102,680 +1621,206 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>37444</v>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2367715</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
       <c r="O7" s="0"/>
-      <c r="P7" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
       <c r="S7" s="0"/>
       <c r="T7" s="0"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="0" t="n">
-        <v>1471760</v>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
       <c r="X7" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD SCROW MISSING AT VARIOUS PLASE</t>
         </is>
       </c>
-      <c r="Z7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>37444</v>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2367715</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K8" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M8" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="0"/>
       <c r="O8" s="0"/>
-      <c r="P8" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="0" t="n">
-        <v>1471760</v>
-      </c>
-      <c r="W8" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
       <c r="X8" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y8" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>37444</v>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2367715</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M9" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
       <c r="O9" s="0"/>
-      <c r="P9" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="0" t="n">
-        <v>1471760</v>
-      </c>
-      <c r="W9" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
       <c r="X9" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y9" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD BROKEN 12"X10"</t>
         </is>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>37444</v>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2367715</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K10" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M10" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="0"/>
       <c r="O10" s="0"/>
-      <c r="P10" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="0" t="n">
-        <v>1471760</v>
-      </c>
-      <c r="W10" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
       <c r="X10" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y10" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD BROKEN/ HOLE 8"X6"</t>
         </is>
       </c>
-      <c r="Z10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>37444</v>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2367715</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K11" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M11" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
       <c r="O11" s="0"/>
-      <c r="P11" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="0" t="n">
-        <v>1471760</v>
-      </c>
-      <c r="W11" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y11" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD BROKEN/ CRACKET 12"X8"</t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>37444</v>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2367715</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K12" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M12" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="0"/>
       <c r="O12" s="0"/>
-      <c r="P12" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="0" t="n">
-        <v>1471760</v>
-      </c>
-      <c r="W12" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
       <c r="X12" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y12" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR LOCKBAR BENT 2 PCS,</t>
         </is>
       </c>
-      <c r="Z12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>37446</v>
@@ -1886,1016 +1931,305 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>37446</v>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2308707</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K14" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M14" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
       <c r="O14" s="0"/>
-      <c r="P14" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="0" t="n">
-        <v>1471772</v>
-      </c>
-      <c r="W14" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y14" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD OIL STAIN &amp; CHEMICAL ODOUR,</t>
         </is>
       </c>
-      <c r="Z14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>37446</v>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2308707</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K15" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M15" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="0" t="n">
-        <v>1471772</v>
-      </c>
-      <c r="W15" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y15" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD PLY WOOD LOOSE 24"X18"</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>37446</v>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2308707</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I16" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J16" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K16" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L16" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M16" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N16" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0"/>
       <c r="O16" s="0"/>
-      <c r="P16" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="0" t="n">
-        <v>1471772</v>
-      </c>
-      <c r="W16" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
       <c r="X16" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y16" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>37446</v>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2308707</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G17" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K17" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M17" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N17" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
       <c r="O17" s="0"/>
-      <c r="P17" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="0" t="n">
-        <v>1471772</v>
-      </c>
-      <c r="W17" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
       <c r="X17" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y17" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR LOCKBAR BENT 2 PCS</t>
         </is>
       </c>
-      <c r="Z17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>37446</v>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2308707</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G18" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I18" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J18" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K18" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L18" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M18" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N18" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="0"/>
       <c r="O18" s="0"/>
-      <c r="P18" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="0" t="n">
-        <v>1471772</v>
-      </c>
-      <c r="W18" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
       <c r="X18" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y18" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR LOCKBAR BENT 2 PCS(DOOR UN LOCK)</t>
         </is>
       </c>
-      <c r="Z18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y18" s="0"/>
+      <c r="Z18" s="0"/>
+      <c r="AA18" s="0"/>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>37446</v>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2308707</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K19" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M19" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N19" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="0" t="n">
-        <v>1471772</v>
-      </c>
-      <c r="W19" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y19" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR TOP GASKET CUT 6"</t>
         </is>
       </c>
-      <c r="Z19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+      <c r="AA19" s="0"/>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>37446</v>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2308707</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G20" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J20" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K20" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L20" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M20" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N20" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="0"/>
       <c r="O20" s="0"/>
-      <c r="P20" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
       <c r="S20" s="0"/>
       <c r="T20" s="0"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="0" t="n">
-        <v>1471772</v>
-      </c>
-      <c r="W20" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V20" s="0"/>
+      <c r="W20" s="0"/>
       <c r="X20" s="0" t="inlineStr">
         <is>
-          <t>Roof panel-(Roof panel)</t>
-        </is>
-      </c>
-      <c r="Y20" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANEL CORRODED &amp; HOLE 1"X1"</t>
         </is>
       </c>
-      <c r="Z20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y20" s="0"/>
+      <c r="Z20" s="0"/>
+      <c r="AA20" s="0"/>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>37446</v>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2308707</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G21" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J21" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K21" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L21" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M21" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N21" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="0"/>
       <c r="O21" s="0"/>
-      <c r="P21" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="0" t="n">
-        <v>1471772</v>
-      </c>
-      <c r="W21" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0"/>
       <c r="X21" s="0" t="inlineStr">
         <is>
-          <t>Roof panel-(Roof panel)</t>
-        </is>
-      </c>
-      <c r="Y21" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANEL RUSTED &amp; CORRODED (BEDLY)</t>
         </is>
       </c>
-      <c r="Z21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y21" s="0"/>
+      <c r="Z21" s="0"/>
+      <c r="AA21" s="0"/>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>37446</v>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2308707</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G22" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J22" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K22" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M22" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N22" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="0"/>
       <c r="O22" s="0"/>
-      <c r="P22" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="0" t="n">
-        <v>1471772</v>
-      </c>
-      <c r="W22" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
       <c r="X22" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y22" s="0" t="inlineStr">
-        <is>
           <t>EXTERIOR PANEL RUSTED &amp; CORRODED,</t>
         </is>
       </c>
-      <c r="Z22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>37480</v>
@@ -3006,344 +2340,107 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>37480</v>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>TGHU7553601</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E24" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G24" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H24" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I24" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J24" s="0" t="inlineStr">
-        <is>
-          <t>CAPE ARAXOS</t>
-        </is>
-      </c>
-      <c r="K24" s="0" t="inlineStr">
-        <is>
-          <t>2018/1449</t>
-        </is>
-      </c>
-      <c r="L24" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M24" s="4" t="d">
-        <v>2018-08-30T00:00:00</v>
-      </c>
-      <c r="N24" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="0"/>
       <c r="O24" s="0"/>
-      <c r="P24" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
       <c r="S24" s="0"/>
       <c r="T24" s="0"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="0" t="n">
-        <v>1472147</v>
-      </c>
-      <c r="W24" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
       <c r="X24" s="0" t="inlineStr">
         <is>
-          <t>Roof panel-(Roof panel)</t>
-        </is>
-      </c>
-      <c r="Y24" s="0" t="inlineStr">
-        <is>
           <t>FRONT ROOF PANEL HOLE 1"X1"</t>
         </is>
       </c>
-      <c r="Z24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>37480</v>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>TGHU7553601</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G25" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J25" s="0" t="inlineStr">
-        <is>
-          <t>CAPE ARAXOS</t>
-        </is>
-      </c>
-      <c r="K25" s="0" t="inlineStr">
-        <is>
-          <t>2018/1449</t>
-        </is>
-      </c>
-      <c r="L25" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="d">
-        <v>2018-08-30T00:00:00</v>
-      </c>
-      <c r="N25" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
       <c r="O25" s="0"/>
-      <c r="P25" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="Q25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="0" t="n">
-        <v>1472147</v>
-      </c>
-      <c r="W25" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
       <c r="X25" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y25" s="0" t="inlineStr">
-        <is>
           <t>EXTERIOR PANEL RUSTED</t>
         </is>
       </c>
-      <c r="Z25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>37480</v>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>TGHU7553601</t>
-        </is>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E26" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G26" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H26" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I26" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J26" s="0" t="inlineStr">
-        <is>
-          <t>CAPE ARAXOS</t>
-        </is>
-      </c>
-      <c r="K26" s="0" t="inlineStr">
-        <is>
-          <t>2018/1449</t>
-        </is>
-      </c>
-      <c r="L26" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M26" s="4" t="d">
-        <v>2018-08-30T00:00:00</v>
-      </c>
-      <c r="N26" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="0"/>
       <c r="O26" s="0"/>
-      <c r="P26" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="Q26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
       <c r="S26" s="0"/>
       <c r="T26" s="0"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="0" t="n">
-        <v>1472147</v>
-      </c>
-      <c r="W26" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0"/>
       <c r="X26" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y26" s="0" t="inlineStr">
-        <is>
           <t>BOTH DOOR PANEL RUSTED</t>
         </is>
       </c>
-      <c r="Z26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y26" s="0"/>
+      <c r="Z26" s="0"/>
+      <c r="AA26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>37729</v>
@@ -3454,120 +2551,41 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>37729</v>
-      </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t>FSCU3652510</t>
-        </is>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E28" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F28" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G28" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H28" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I28" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J28" s="0" t="inlineStr">
-        <is>
-          <t>X- PRESS MEGHNA</t>
-        </is>
-      </c>
-      <c r="K28" s="0" t="inlineStr">
-        <is>
-          <t>2473/2018</t>
-        </is>
-      </c>
-      <c r="L28" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M28" s="4" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="N28" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="0"/>
       <c r="O28" s="0"/>
-      <c r="P28" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
       <c r="S28" s="0"/>
       <c r="T28" s="0"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="0" t="n">
-        <v>1474053</v>
-      </c>
-      <c r="W28" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0"/>
       <c r="X28" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y28" s="0" t="inlineStr">
-        <is>
           <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y28" s="0"/>
+      <c r="Z28" s="0"/>
+      <c r="AA28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>37813</v>
@@ -3679,7 +2697,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>37814</v>
@@ -3791,7 +2809,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>37815</v>
@@ -3903,7 +2921,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>37816</v>
@@ -4014,120 +3032,41 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>37816</v>
-      </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>UESU2312270</t>
-        </is>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E33" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F33" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G33" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H33" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I33" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J33" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K33" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L33" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M33" s="4" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="N33" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="0"/>
       <c r="O33" s="0"/>
-      <c r="P33" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
       <c r="S33" s="0"/>
       <c r="T33" s="0"/>
       <c r="U33" s="4"/>
-      <c r="V33" s="0" t="n">
-        <v>1474586</v>
-      </c>
-      <c r="W33" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0"/>
       <c r="X33" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y33" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>37817</v>
@@ -4238,120 +3177,41 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>37817</v>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>MAXU2414282</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E35" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F35" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G35" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H35" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I35" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J35" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K35" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L35" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M35" s="4" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="N35" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="0"/>
       <c r="O35" s="0"/>
-      <c r="P35" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
       <c r="S35" s="0"/>
       <c r="T35" s="0"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="0" t="n">
-        <v>1474587</v>
-      </c>
-      <c r="W35" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0"/>
       <c r="X35" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y35" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>37818</v>
@@ -4462,120 +3322,41 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>37818</v>
-      </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>TTNU3773928</t>
-        </is>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E37" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G37" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H37" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I37" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J37" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K37" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L37" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M37" s="4" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="N37" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="0"/>
       <c r="O37" s="0"/>
-      <c r="P37" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="0" t="n">
-        <v>1474588</v>
-      </c>
-      <c r="W37" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V37" s="0"/>
+      <c r="W37" s="0"/>
       <c r="X37" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y37" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y37" s="0"/>
+      <c r="Z37" s="0"/>
+      <c r="AA37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>37819</v>
@@ -4687,7 +3468,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>37820</v>
@@ -4799,7 +3580,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>37821</v>
@@ -4911,7 +3692,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>37879</v>
@@ -5023,7 +3804,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>37880</v>
@@ -5134,120 +3915,41 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>37880</v>
-      </c>
-      <c r="C43" s="0" t="inlineStr">
-        <is>
-          <t>GVDU2024337</t>
-        </is>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E43" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G43" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H43" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I43" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J43" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K43" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L43" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M43" s="4" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="N43" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A43" s="0"/>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="0"/>
       <c r="O43" s="0"/>
-      <c r="P43" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="Q43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
       <c r="S43" s="0"/>
       <c r="T43" s="0"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="0" t="n">
-        <v>1475012</v>
-      </c>
-      <c r="W43" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0"/>
       <c r="X43" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y43" s="0" t="inlineStr">
-        <is>
           <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y43" s="0"/>
+      <c r="Z43" s="0"/>
+      <c r="AA43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>37881</v>
@@ -5358,120 +4060,41 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>37881</v>
-      </c>
-      <c r="C45" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2433170</t>
-        </is>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E45" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F45" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G45" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H45" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I45" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J45" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K45" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L45" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M45" s="4" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="N45" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A45" s="0"/>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="0"/>
       <c r="O45" s="0"/>
-      <c r="P45" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
       <c r="S45" s="0"/>
       <c r="T45" s="0"/>
       <c r="U45" s="4"/>
-      <c r="V45" s="0" t="n">
-        <v>1475013</v>
-      </c>
-      <c r="W45" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V45" s="0"/>
+      <c r="W45" s="0"/>
       <c r="X45" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y45" s="0" t="inlineStr">
-        <is>
           <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y45" s="0"/>
+      <c r="Z45" s="0"/>
+      <c r="AA45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>37882</v>
@@ -5582,120 +4205,41 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>37882</v>
-      </c>
-      <c r="C47" s="0" t="inlineStr">
-        <is>
-          <t>BHCU3030039</t>
-        </is>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E47" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F47" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G47" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H47" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I47" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J47" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K47" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L47" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M47" s="4" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="N47" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A47" s="0"/>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="0"/>
       <c r="O47" s="0"/>
-      <c r="P47" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="Q47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
       <c r="S47" s="0"/>
       <c r="T47" s="0"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="0" t="n">
-        <v>1475014</v>
-      </c>
-      <c r="W47" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V47" s="0"/>
+      <c r="W47" s="0"/>
       <c r="X47" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y47" s="0" t="inlineStr">
-        <is>
           <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y47" s="0"/>
+      <c r="Z47" s="0"/>
+      <c r="AA47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>37883</v>
@@ -5806,120 +4350,41 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>37883</v>
-      </c>
-      <c r="C49" s="0" t="inlineStr">
-        <is>
-          <t>WHLU2583130</t>
-        </is>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E49" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F49" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G49" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H49" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I49" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J49" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K49" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L49" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M49" s="4" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="N49" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A49" s="0"/>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="0"/>
       <c r="O49" s="0"/>
-      <c r="P49" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="Q49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
       <c r="S49" s="0"/>
       <c r="T49" s="0"/>
       <c r="U49" s="4"/>
-      <c r="V49" s="0" t="n">
-        <v>1475015</v>
-      </c>
-      <c r="W49" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V49" s="0"/>
+      <c r="W49" s="0"/>
       <c r="X49" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y49" s="0" t="inlineStr">
-        <is>
           <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y49" s="0"/>
+      <c r="Z49" s="0"/>
+      <c r="AA49" s="0"/>
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>37884</v>
@@ -6031,7 +4496,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>37885</v>
@@ -6142,120 +4607,41 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>37885</v>
-      </c>
-      <c r="C52" s="0" t="inlineStr">
-        <is>
-          <t>BHCU3056476</t>
-        </is>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E52" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F52" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G52" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H52" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I52" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J52" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K52" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L52" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M52" s="4" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="N52" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A52" s="0"/>
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0"/>
+      <c r="H52" s="0"/>
+      <c r="I52" s="0"/>
+      <c r="J52" s="0"/>
+      <c r="K52" s="0"/>
+      <c r="L52" s="0"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="0"/>
       <c r="O52" s="0"/>
-      <c r="P52" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="Q52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P52" s="0"/>
+      <c r="Q52" s="0"/>
+      <c r="R52" s="0"/>
       <c r="S52" s="0"/>
       <c r="T52" s="0"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="0" t="n">
-        <v>1475017</v>
-      </c>
-      <c r="W52" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V52" s="0"/>
+      <c r="W52" s="0"/>
       <c r="X52" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y52" s="0" t="inlineStr">
-        <is>
           <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z52" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA52" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB52" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y52" s="0"/>
+      <c r="Z52" s="0"/>
+      <c r="AA52" s="0"/>
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>38064</v>
@@ -6366,120 +4752,41 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>38064</v>
-      </c>
-      <c r="C54" s="0" t="inlineStr">
-        <is>
-          <t>CTRU7962449</t>
-        </is>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E54" s="0" t="inlineStr">
-        <is>
-          <t>OT</t>
-        </is>
-      </c>
-      <c r="F54" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G54" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H54" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I54" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J54" s="0" t="inlineStr">
-        <is>
-          <t>CAPE ARAXOS</t>
-        </is>
-      </c>
-      <c r="K54" s="0" t="inlineStr">
-        <is>
-          <t>2018/1449</t>
-        </is>
-      </c>
-      <c r="L54" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M54" s="4" t="d">
-        <v>2018-09-07T00:00:00</v>
-      </c>
-      <c r="N54" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A54" s="0"/>
+      <c r="B54" s="0"/>
+      <c r="C54" s="0"/>
+      <c r="D54" s="0"/>
+      <c r="E54" s="0"/>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0"/>
+      <c r="H54" s="0"/>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0"/>
+      <c r="K54" s="0"/>
+      <c r="L54" s="0"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="0"/>
       <c r="O54" s="0"/>
-      <c r="P54" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="Q54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P54" s="0"/>
+      <c r="Q54" s="0"/>
+      <c r="R54" s="0"/>
       <c r="S54" s="0"/>
       <c r="T54" s="0"/>
       <c r="U54" s="4"/>
-      <c r="V54" s="0" t="n">
-        <v>1476016</v>
-      </c>
-      <c r="W54" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V54" s="0"/>
+      <c r="W54" s="0"/>
       <c r="X54" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y54" s="0" t="inlineStr">
-        <is>
           <t>ROOF BAR 10PCS,TARPULIN 01 PC,CORD 01 PC TARPULIN CUT VARIOUS PLS </t>
         </is>
       </c>
-      <c r="Z54" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA54" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB54" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y54" s="0"/>
+      <c r="Z54" s="0"/>
+      <c r="AA54" s="0"/>
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>37452</v>
@@ -6590,792 +4897,239 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>37452</v>
-      </c>
-      <c r="C56" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2148070</t>
-        </is>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E56" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F56" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G56" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H56" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I56" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J56" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K56" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L56" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M56" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N56" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A56" s="0"/>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+      <c r="L56" s="0"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="0"/>
       <c r="O56" s="0"/>
-      <c r="P56" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P56" s="0"/>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="0"/>
       <c r="S56" s="0"/>
       <c r="T56" s="0"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="0" t="n">
-        <v>1471822</v>
-      </c>
-      <c r="W56" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V56" s="0"/>
+      <c r="W56" s="0"/>
       <c r="X56" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y56" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z56" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA56" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB56" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y56" s="0"/>
+      <c r="Z56" s="0"/>
+      <c r="AA56" s="0"/>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>37452</v>
-      </c>
-      <c r="C57" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2148070</t>
-        </is>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E57" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F57" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G57" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H57" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I57" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J57" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K57" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L57" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M57" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N57" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A57" s="0"/>
+      <c r="B57" s="0"/>
+      <c r="C57" s="0"/>
+      <c r="D57" s="0"/>
+      <c r="E57" s="0"/>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0"/>
+      <c r="H57" s="0"/>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
+      <c r="K57" s="0"/>
+      <c r="L57" s="0"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="0"/>
       <c r="O57" s="0"/>
-      <c r="P57" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P57" s="0"/>
+      <c r="Q57" s="0"/>
+      <c r="R57" s="0"/>
       <c r="S57" s="0"/>
       <c r="T57" s="0"/>
       <c r="U57" s="4"/>
-      <c r="V57" s="0" t="n">
-        <v>1471822</v>
-      </c>
-      <c r="W57" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V57" s="0"/>
+      <c r="W57" s="0"/>
       <c r="X57" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y57" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
         </is>
       </c>
-      <c r="Z57" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA57" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB57" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y57" s="0"/>
+      <c r="Z57" s="0"/>
+      <c r="AA57" s="0"/>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>37452</v>
-      </c>
-      <c r="C58" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2148070</t>
-        </is>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E58" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F58" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G58" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H58" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I58" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J58" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K58" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L58" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M58" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N58" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A58" s="0"/>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="0"/>
       <c r="O58" s="0"/>
-      <c r="P58" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
       <c r="S58" s="0"/>
       <c r="T58" s="0"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="0" t="n">
-        <v>1471822</v>
-      </c>
-      <c r="W58" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0"/>
       <c r="X58" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y58" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR LOCKBAR HANDLE MISSING 1 PCS</t>
         </is>
       </c>
-      <c r="Z58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y58" s="0"/>
+      <c r="Z58" s="0"/>
+      <c r="AA58" s="0"/>
     </row>
     <row r="59">
-      <c r="A59" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>37452</v>
-      </c>
-      <c r="C59" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2148070</t>
-        </is>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E59" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F59" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G59" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H59" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I59" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J59" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K59" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L59" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M59" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N59" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A59" s="0"/>
+      <c r="B59" s="0"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0"/>
+      <c r="H59" s="0"/>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
+      <c r="K59" s="0"/>
+      <c r="L59" s="0"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="0"/>
       <c r="O59" s="0"/>
-      <c r="P59" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P59" s="0"/>
+      <c r="Q59" s="0"/>
+      <c r="R59" s="0"/>
       <c r="S59" s="0"/>
       <c r="T59" s="0"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="0" t="n">
-        <v>1471822</v>
-      </c>
-      <c r="W59" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V59" s="0"/>
+      <c r="W59" s="0"/>
       <c r="X59" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y59" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR LOCKBAR HANDLE MISSING 1 PCS</t>
         </is>
       </c>
-      <c r="Z59" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA59" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB59" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y59" s="0"/>
+      <c r="Z59" s="0"/>
+      <c r="AA59" s="0"/>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>37452</v>
-      </c>
-      <c r="C60" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2148070</t>
-        </is>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E60" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F60" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G60" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H60" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I60" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J60" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K60" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L60" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M60" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N60" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A60" s="0"/>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+      <c r="H60" s="0"/>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
+      <c r="K60" s="0"/>
+      <c r="L60" s="0"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="0"/>
       <c r="O60" s="0"/>
-      <c r="P60" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P60" s="0"/>
+      <c r="Q60" s="0"/>
+      <c r="R60" s="0"/>
       <c r="S60" s="0"/>
       <c r="T60" s="0"/>
       <c r="U60" s="4"/>
-      <c r="V60" s="0" t="n">
-        <v>1471822</v>
-      </c>
-      <c r="W60" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V60" s="0"/>
+      <c r="W60" s="0"/>
       <c r="X60" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y60" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR LOCKBAR BENT 2 PCS</t>
         </is>
       </c>
-      <c r="Z60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y60" s="0"/>
+      <c r="Z60" s="0"/>
+      <c r="AA60" s="0"/>
     </row>
     <row r="61">
-      <c r="A61" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>37452</v>
-      </c>
-      <c r="C61" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2148070</t>
-        </is>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E61" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F61" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G61" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H61" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I61" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J61" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K61" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L61" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M61" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N61" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A61" s="0"/>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+      <c r="G61" s="0"/>
+      <c r="H61" s="0"/>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
+      <c r="K61" s="0"/>
+      <c r="L61" s="0"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="0"/>
       <c r="O61" s="0"/>
-      <c r="P61" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P61" s="0"/>
+      <c r="Q61" s="0"/>
+      <c r="R61" s="0"/>
       <c r="S61" s="0"/>
       <c r="T61" s="0"/>
       <c r="U61" s="4"/>
-      <c r="V61" s="0" t="n">
-        <v>1471822</v>
-      </c>
-      <c r="W61" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V61" s="0"/>
+      <c r="W61" s="0"/>
       <c r="X61" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y61" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR TOP GASKET MISSING 3"</t>
         </is>
       </c>
-      <c r="Z61" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA61" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB61" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y61" s="0"/>
+      <c r="Z61" s="0"/>
+      <c r="AA61" s="0"/>
     </row>
     <row r="62">
-      <c r="A62" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="B62" s="0" t="n">
-        <v>37452</v>
-      </c>
-      <c r="C62" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2148070</t>
-        </is>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E62" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F62" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G62" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H62" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I62" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J62" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K62" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L62" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M62" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N62" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A62" s="0"/>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+      <c r="G62" s="0"/>
+      <c r="H62" s="0"/>
+      <c r="I62" s="0"/>
+      <c r="J62" s="0"/>
+      <c r="K62" s="0"/>
+      <c r="L62" s="0"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="0"/>
       <c r="O62" s="0"/>
-      <c r="P62" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P62" s="0"/>
+      <c r="Q62" s="0"/>
+      <c r="R62" s="0"/>
       <c r="S62" s="0"/>
       <c r="T62" s="0"/>
       <c r="U62" s="4"/>
-      <c r="V62" s="0" t="n">
-        <v>1471822</v>
-      </c>
-      <c r="W62" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V62" s="0"/>
+      <c r="W62" s="0"/>
       <c r="X62" s="0" t="inlineStr">
         <is>
-          <t>Roof panel-(Roof panel)</t>
-        </is>
-      </c>
-      <c r="Y62" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANEL RUSTED &amp; CORRODED,</t>
         </is>
       </c>
-      <c r="Z62" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA62" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB62" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y62" s="0"/>
+      <c r="Z62" s="0"/>
+      <c r="AA62" s="0"/>
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>37467</v>
@@ -7486,232 +5240,74 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>37467</v>
-      </c>
-      <c r="C64" s="0" t="inlineStr">
-        <is>
-          <t>CRXU3232266</t>
-        </is>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E64" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F64" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G64" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H64" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I64" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J64" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K64" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L64" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M64" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N64" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A64" s="0"/>
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
+      <c r="L64" s="0"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="0"/>
       <c r="O64" s="0"/>
-      <c r="P64" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
+      <c r="R64" s="0"/>
       <c r="S64" s="0"/>
       <c r="T64" s="0"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="0" t="n">
-        <v>1471878</v>
-      </c>
-      <c r="W64" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V64" s="0"/>
+      <c r="W64" s="0"/>
       <c r="X64" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y64" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD BROKEN 60'X60'</t>
         </is>
       </c>
-      <c r="Z64" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA64" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB64" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y64" s="0"/>
+      <c r="Z64" s="0"/>
+      <c r="AA64" s="0"/>
     </row>
     <row r="65">
-      <c r="A65" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <v>37467</v>
-      </c>
-      <c r="C65" s="0" t="inlineStr">
-        <is>
-          <t>CRXU3232266</t>
-        </is>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E65" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F65" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G65" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H65" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I65" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J65" s="0" t="inlineStr">
-        <is>
-          <t>MV,VASI SUN</t>
-        </is>
-      </c>
-      <c r="K65" s="0" t="inlineStr">
-        <is>
-          <t>2018/2538</t>
-        </is>
-      </c>
-      <c r="L65" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M65" s="4" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="N65" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A65" s="0"/>
+      <c r="B65" s="0"/>
+      <c r="C65" s="0"/>
+      <c r="D65" s="0"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
+      <c r="G65" s="0"/>
+      <c r="H65" s="0"/>
+      <c r="I65" s="0"/>
+      <c r="J65" s="0"/>
+      <c r="K65" s="0"/>
+      <c r="L65" s="0"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="0"/>
       <c r="O65" s="0"/>
-      <c r="P65" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P65" s="0"/>
+      <c r="Q65" s="0"/>
+      <c r="R65" s="0"/>
       <c r="S65" s="0"/>
       <c r="T65" s="0"/>
       <c r="U65" s="4"/>
-      <c r="V65" s="0" t="n">
-        <v>1471878</v>
-      </c>
-      <c r="W65" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V65" s="0"/>
+      <c r="W65" s="0"/>
       <c r="X65" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y65" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY &amp; SCRATCH</t>
         </is>
       </c>
-      <c r="Z65" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA65" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB65" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y65" s="0"/>
+      <c r="Z65" s="0"/>
+      <c r="AA65" s="0"/>
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>37517</v>
@@ -7822,120 +5418,41 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="B67" s="0" t="n">
-        <v>37517</v>
-      </c>
-      <c r="C67" s="0" t="inlineStr">
-        <is>
-          <t>FSCU3422992</t>
-        </is>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E67" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F67" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G67" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H67" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I67" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J67" s="0" t="inlineStr">
-        <is>
-          <t>CAPE ARAXOS</t>
-        </is>
-      </c>
-      <c r="K67" s="0" t="inlineStr">
-        <is>
-          <t>2018/1449</t>
-        </is>
-      </c>
-      <c r="L67" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M67" s="4" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="N67" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A67" s="0"/>
+      <c r="B67" s="0"/>
+      <c r="C67" s="0"/>
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+      <c r="G67" s="0"/>
+      <c r="H67" s="0"/>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0"/>
+      <c r="K67" s="0"/>
+      <c r="L67" s="0"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="0"/>
       <c r="O67" s="0"/>
-      <c r="P67" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="Q67" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P67" s="0"/>
+      <c r="Q67" s="0"/>
+      <c r="R67" s="0"/>
       <c r="S67" s="0"/>
       <c r="T67" s="0"/>
       <c r="U67" s="4"/>
-      <c r="V67" s="0" t="n">
-        <v>1472624</v>
-      </c>
-      <c r="W67" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V67" s="0"/>
+      <c r="W67" s="0"/>
       <c r="X67" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y67" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z67" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA67" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB67" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y67" s="0"/>
+      <c r="Z67" s="0"/>
+      <c r="AA67" s="0"/>
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>37005</v>
@@ -8046,232 +5563,74 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>37005</v>
-      </c>
-      <c r="C69" s="0" t="inlineStr">
-        <is>
-          <t>TDRU2270516</t>
-        </is>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E69" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F69" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G69" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H69" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I69" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J69" s="0" t="inlineStr">
-        <is>
-          <t>MV NOU KOLLAN</t>
-        </is>
-      </c>
-      <c r="K69" s="0" t="inlineStr">
-        <is>
-          <t>2018/1901</t>
-        </is>
-      </c>
-      <c r="L69" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M69" s="4" t="d">
-        <v>2018-06-21T00:00:00</v>
-      </c>
-      <c r="N69" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A69" s="0"/>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0"/>
+      <c r="K69" s="0"/>
+      <c r="L69" s="0"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="0"/>
       <c r="O69" s="0"/>
-      <c r="P69" s="0" t="n">
-        <v>165</v>
-      </c>
-      <c r="Q69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P69" s="0"/>
+      <c r="Q69" s="0"/>
+      <c r="R69" s="0"/>
       <c r="S69" s="0"/>
       <c r="T69" s="0"/>
       <c r="U69" s="4"/>
-      <c r="V69" s="0" t="n">
-        <v>1442637</v>
-      </c>
-      <c r="W69" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V69" s="0"/>
+      <c r="W69" s="0"/>
       <c r="X69" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y69" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z69" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA69" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB69" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y69" s="0"/>
+      <c r="Z69" s="0"/>
+      <c r="AA69" s="0"/>
     </row>
     <row r="70">
-      <c r="A70" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="B70" s="0" t="n">
-        <v>37005</v>
-      </c>
-      <c r="C70" s="0" t="inlineStr">
-        <is>
-          <t>TDRU2270516</t>
-        </is>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E70" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F70" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G70" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H70" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I70" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J70" s="0" t="inlineStr">
-        <is>
-          <t>MV NOU KOLLAN</t>
-        </is>
-      </c>
-      <c r="K70" s="0" t="inlineStr">
-        <is>
-          <t>2018/1901</t>
-        </is>
-      </c>
-      <c r="L70" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M70" s="4" t="d">
-        <v>2018-06-21T00:00:00</v>
-      </c>
-      <c r="N70" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A70" s="0"/>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
+      <c r="G70" s="0"/>
+      <c r="H70" s="0"/>
+      <c r="I70" s="0"/>
+      <c r="J70" s="0"/>
+      <c r="K70" s="0"/>
+      <c r="L70" s="0"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="0"/>
       <c r="O70" s="0"/>
-      <c r="P70" s="0" t="n">
-        <v>165</v>
-      </c>
-      <c r="Q70" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P70" s="0"/>
+      <c r="Q70" s="0"/>
+      <c r="R70" s="0"/>
       <c r="S70" s="0"/>
       <c r="T70" s="0"/>
       <c r="U70" s="4"/>
-      <c r="V70" s="0" t="n">
-        <v>1442637</v>
-      </c>
-      <c r="W70" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V70" s="0"/>
+      <c r="W70" s="0"/>
       <c r="X70" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y70" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR BOTTOM GASKET LOOSE 8'</t>
         </is>
       </c>
-      <c r="Z70" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA70" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB70" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y70" s="0"/>
+      <c r="Z70" s="0"/>
+      <c r="AA70" s="0"/>
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>37322</v>
@@ -8383,7 +5742,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>37706</v>
@@ -8494,120 +5853,41 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="B73" s="0" t="n">
-        <v>37706</v>
-      </c>
-      <c r="C73" s="0" t="inlineStr">
-        <is>
-          <t>TGHU7029955</t>
-        </is>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E73" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F73" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G73" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H73" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I73" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J73" s="0" t="inlineStr">
-        <is>
-          <t>CAPE ARAXOS</t>
-        </is>
-      </c>
-      <c r="K73" s="0" t="inlineStr">
-        <is>
-          <t>2018/1449</t>
-        </is>
-      </c>
-      <c r="L73" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M73" s="4" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="N73" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A73" s="0"/>
+      <c r="B73" s="0"/>
+      <c r="C73" s="0"/>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+      <c r="G73" s="0"/>
+      <c r="H73" s="0"/>
+      <c r="I73" s="0"/>
+      <c r="J73" s="0"/>
+      <c r="K73" s="0"/>
+      <c r="L73" s="0"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="0"/>
       <c r="O73" s="0"/>
-      <c r="P73" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="Q73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P73" s="0"/>
+      <c r="Q73" s="0"/>
+      <c r="R73" s="0"/>
       <c r="S73" s="0"/>
       <c r="T73" s="0"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="0" t="n">
-        <v>1473995</v>
-      </c>
-      <c r="W73" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V73" s="0"/>
+      <c r="W73" s="0"/>
       <c r="X73" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y73" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR LOCKBAR BENT 1 PCS,</t>
         </is>
       </c>
-      <c r="Z73" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA73" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB73" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y73" s="0"/>
+      <c r="Z73" s="0"/>
+      <c r="AA73" s="0"/>
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>37715</v>
@@ -8718,120 +5998,41 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="B75" s="0" t="n">
-        <v>37715</v>
-      </c>
-      <c r="C75" s="0" t="inlineStr">
-        <is>
-          <t>BHCU4934452</t>
-        </is>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E75" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F75" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G75" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H75" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I75" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J75" s="0" t="inlineStr">
-        <is>
-          <t>CAPE ARAXOS</t>
-        </is>
-      </c>
-      <c r="K75" s="0" t="inlineStr">
-        <is>
-          <t>2018/1449</t>
-        </is>
-      </c>
-      <c r="L75" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M75" s="4" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="N75" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A75" s="0"/>
+      <c r="B75" s="0"/>
+      <c r="C75" s="0"/>
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
+      <c r="F75" s="0"/>
+      <c r="G75" s="0"/>
+      <c r="H75" s="0"/>
+      <c r="I75" s="0"/>
+      <c r="J75" s="0"/>
+      <c r="K75" s="0"/>
+      <c r="L75" s="0"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="0"/>
       <c r="O75" s="0"/>
-      <c r="P75" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="Q75" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P75" s="0"/>
+      <c r="Q75" s="0"/>
+      <c r="R75" s="0"/>
       <c r="S75" s="0"/>
       <c r="T75" s="0"/>
       <c r="U75" s="4"/>
-      <c r="V75" s="0" t="n">
-        <v>1474021</v>
-      </c>
-      <c r="W75" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V75" s="0"/>
+      <c r="W75" s="0"/>
       <c r="X75" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y75" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANLE CORRODED HOLE 2" AT 04PLS</t>
         </is>
       </c>
-      <c r="Z75" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA75" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB75" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y75" s="0"/>
+      <c r="Z75" s="0"/>
+      <c r="AA75" s="0"/>
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>37802</v>
@@ -8942,120 +6143,41 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="B77" s="0" t="n">
-        <v>37802</v>
-      </c>
-      <c r="C77" s="0" t="inlineStr">
-        <is>
-          <t>FSCU3579528</t>
-        </is>
-      </c>
-      <c r="D77" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E77" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F77" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G77" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H77" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I77" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J77" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K77" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L77" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M77" s="4" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="N77" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A77" s="0"/>
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="H77" s="0"/>
+      <c r="I77" s="0"/>
+      <c r="J77" s="0"/>
+      <c r="K77" s="0"/>
+      <c r="L77" s="0"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="0"/>
       <c r="O77" s="0"/>
-      <c r="P77" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P77" s="0"/>
+      <c r="Q77" s="0"/>
+      <c r="R77" s="0"/>
       <c r="S77" s="0"/>
       <c r="T77" s="0"/>
       <c r="U77" s="4"/>
-      <c r="V77" s="0" t="n">
-        <v>1474572</v>
-      </c>
-      <c r="W77" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V77" s="0"/>
+      <c r="W77" s="0"/>
       <c r="X77" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y77" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z77" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA77" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB77" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y77" s="0"/>
+      <c r="Z77" s="0"/>
+      <c r="AA77" s="0"/>
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>37803</v>
@@ -9166,120 +6288,41 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="B79" s="0" t="n">
-        <v>37803</v>
-      </c>
-      <c r="C79" s="0" t="inlineStr">
-        <is>
-          <t>GESU2999199</t>
-        </is>
-      </c>
-      <c r="D79" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E79" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F79" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G79" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H79" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I79" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J79" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K79" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L79" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M79" s="4" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="N79" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A79" s="0"/>
+      <c r="B79" s="0"/>
+      <c r="C79" s="0"/>
+      <c r="D79" s="0"/>
+      <c r="E79" s="0"/>
+      <c r="F79" s="0"/>
+      <c r="G79" s="0"/>
+      <c r="H79" s="0"/>
+      <c r="I79" s="0"/>
+      <c r="J79" s="0"/>
+      <c r="K79" s="0"/>
+      <c r="L79" s="0"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="0"/>
       <c r="O79" s="0"/>
-      <c r="P79" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P79" s="0"/>
+      <c r="Q79" s="0"/>
+      <c r="R79" s="0"/>
       <c r="S79" s="0"/>
       <c r="T79" s="0"/>
       <c r="U79" s="4"/>
-      <c r="V79" s="0" t="n">
-        <v>1474573</v>
-      </c>
-      <c r="W79" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V79" s="0"/>
+      <c r="W79" s="0"/>
       <c r="X79" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y79" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z79" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA79" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB79" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y79" s="0"/>
+      <c r="Z79" s="0"/>
+      <c r="AA79" s="0"/>
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>37804</v>
@@ -9390,120 +6433,41 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="B81" s="0" t="n">
-        <v>37804</v>
-      </c>
-      <c r="C81" s="0" t="inlineStr">
-        <is>
-          <t>YMLU3046415</t>
-        </is>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E81" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F81" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G81" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H81" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I81" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J81" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K81" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L81" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M81" s="4" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="N81" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A81" s="0"/>
+      <c r="B81" s="0"/>
+      <c r="C81" s="0"/>
+      <c r="D81" s="0"/>
+      <c r="E81" s="0"/>
+      <c r="F81" s="0"/>
+      <c r="G81" s="0"/>
+      <c r="H81" s="0"/>
+      <c r="I81" s="0"/>
+      <c r="J81" s="0"/>
+      <c r="K81" s="0"/>
+      <c r="L81" s="0"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="0"/>
       <c r="O81" s="0"/>
-      <c r="P81" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R81" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P81" s="0"/>
+      <c r="Q81" s="0"/>
+      <c r="R81" s="0"/>
       <c r="S81" s="0"/>
       <c r="T81" s="0"/>
       <c r="U81" s="4"/>
-      <c r="V81" s="0" t="n">
-        <v>1474574</v>
-      </c>
-      <c r="W81" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V81" s="0"/>
+      <c r="W81" s="0"/>
       <c r="X81" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y81" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z81" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA81" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB81" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y81" s="0"/>
+      <c r="Z81" s="0"/>
+      <c r="AA81" s="0"/>
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>37805</v>
@@ -9614,120 +6578,41 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="B83" s="0" t="n">
-        <v>37805</v>
-      </c>
-      <c r="C83" s="0" t="inlineStr">
-        <is>
-          <t>FSCU3439980</t>
-        </is>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E83" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F83" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G83" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H83" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I83" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J83" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K83" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L83" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M83" s="4" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="N83" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A83" s="0"/>
+      <c r="B83" s="0"/>
+      <c r="C83" s="0"/>
+      <c r="D83" s="0"/>
+      <c r="E83" s="0"/>
+      <c r="F83" s="0"/>
+      <c r="G83" s="0"/>
+      <c r="H83" s="0"/>
+      <c r="I83" s="0"/>
+      <c r="J83" s="0"/>
+      <c r="K83" s="0"/>
+      <c r="L83" s="0"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="0"/>
       <c r="O83" s="0"/>
-      <c r="P83" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R83" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P83" s="0"/>
+      <c r="Q83" s="0"/>
+      <c r="R83" s="0"/>
       <c r="S83" s="0"/>
       <c r="T83" s="0"/>
       <c r="U83" s="4"/>
-      <c r="V83" s="0" t="n">
-        <v>1474575</v>
-      </c>
-      <c r="W83" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V83" s="0"/>
+      <c r="W83" s="0"/>
       <c r="X83" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y83" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z83" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA83" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB83" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y83" s="0"/>
+      <c r="Z83" s="0"/>
+      <c r="AA83" s="0"/>
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>37806</v>
@@ -9838,120 +6723,41 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="B85" s="0" t="n">
-        <v>37806</v>
-      </c>
-      <c r="C85" s="0" t="inlineStr">
-        <is>
-          <t>GESU2095709</t>
-        </is>
-      </c>
-      <c r="D85" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E85" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F85" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G85" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H85" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I85" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J85" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K85" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L85" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M85" s="4" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="N85" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A85" s="0"/>
+      <c r="B85" s="0"/>
+      <c r="C85" s="0"/>
+      <c r="D85" s="0"/>
+      <c r="E85" s="0"/>
+      <c r="F85" s="0"/>
+      <c r="G85" s="0"/>
+      <c r="H85" s="0"/>
+      <c r="I85" s="0"/>
+      <c r="J85" s="0"/>
+      <c r="K85" s="0"/>
+      <c r="L85" s="0"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="0"/>
       <c r="O85" s="0"/>
-      <c r="P85" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P85" s="0"/>
+      <c r="Q85" s="0"/>
+      <c r="R85" s="0"/>
       <c r="S85" s="0"/>
       <c r="T85" s="0"/>
       <c r="U85" s="4"/>
-      <c r="V85" s="0" t="n">
-        <v>1474576</v>
-      </c>
-      <c r="W85" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V85" s="0"/>
+      <c r="W85" s="0"/>
       <c r="X85" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y85" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z85" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA85" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB85" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y85" s="0"/>
+      <c r="Z85" s="0"/>
+      <c r="AA85" s="0"/>
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>37807</v>
@@ -10063,7 +6869,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>37808</v>
@@ -10174,120 +6980,41 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="B88" s="0" t="n">
-        <v>37808</v>
-      </c>
-      <c r="C88" s="0" t="inlineStr">
-        <is>
-          <t>FSCU3374359</t>
-        </is>
-      </c>
-      <c r="D88" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E88" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F88" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G88" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H88" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I88" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J88" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K88" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L88" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M88" s="4" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="N88" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A88" s="0"/>
+      <c r="B88" s="0"/>
+      <c r="C88" s="0"/>
+      <c r="D88" s="0"/>
+      <c r="E88" s="0"/>
+      <c r="F88" s="0"/>
+      <c r="G88" s="0"/>
+      <c r="H88" s="0"/>
+      <c r="I88" s="0"/>
+      <c r="J88" s="0"/>
+      <c r="K88" s="0"/>
+      <c r="L88" s="0"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="0"/>
       <c r="O88" s="0"/>
-      <c r="P88" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q88" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R88" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P88" s="0"/>
+      <c r="Q88" s="0"/>
+      <c r="R88" s="0"/>
       <c r="S88" s="0"/>
       <c r="T88" s="0"/>
       <c r="U88" s="4"/>
-      <c r="V88" s="0" t="n">
-        <v>1474578</v>
-      </c>
-      <c r="W88" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V88" s="0"/>
+      <c r="W88" s="0"/>
       <c r="X88" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y88" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z88" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA88" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB88" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y88" s="0"/>
+      <c r="Z88" s="0"/>
+      <c r="AA88" s="0"/>
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>37809</v>
@@ -10399,7 +7126,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>37810</v>
@@ -10511,7 +7238,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>37811</v>
@@ -10623,7 +7350,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>37812</v>
@@ -10734,120 +7461,41 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="B93" s="0" t="n">
-        <v>37812</v>
-      </c>
-      <c r="C93" s="0" t="inlineStr">
-        <is>
-          <t>ECMU1312232</t>
-        </is>
-      </c>
-      <c r="D93" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E93" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F93" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G93" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H93" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I93" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J93" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K93" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L93" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M93" s="4" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="N93" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A93" s="0"/>
+      <c r="B93" s="0"/>
+      <c r="C93" s="0"/>
+      <c r="D93" s="0"/>
+      <c r="E93" s="0"/>
+      <c r="F93" s="0"/>
+      <c r="G93" s="0"/>
+      <c r="H93" s="0"/>
+      <c r="I93" s="0"/>
+      <c r="J93" s="0"/>
+      <c r="K93" s="0"/>
+      <c r="L93" s="0"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="0"/>
       <c r="O93" s="0"/>
-      <c r="P93" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q93" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R93" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P93" s="0"/>
+      <c r="Q93" s="0"/>
+      <c r="R93" s="0"/>
       <c r="S93" s="0"/>
       <c r="T93" s="0"/>
       <c r="U93" s="4"/>
-      <c r="V93" s="0" t="n">
-        <v>1474582</v>
-      </c>
-      <c r="W93" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V93" s="0"/>
+      <c r="W93" s="0"/>
       <c r="X93" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y93" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
         </is>
       </c>
-      <c r="Z93" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA93" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB93" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y93" s="0"/>
+      <c r="Z93" s="0"/>
+      <c r="AA93" s="0"/>
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>37886</v>
@@ -10958,120 +7606,41 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="B95" s="0" t="n">
-        <v>37886</v>
-      </c>
-      <c r="C95" s="0" t="inlineStr">
-        <is>
-          <t>FSCU7971537</t>
-        </is>
-      </c>
-      <c r="D95" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E95" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F95" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G95" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H95" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I95" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J95" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K95" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L95" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M95" s="4" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="N95" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A95" s="0"/>
+      <c r="B95" s="0"/>
+      <c r="C95" s="0"/>
+      <c r="D95" s="0"/>
+      <c r="E95" s="0"/>
+      <c r="F95" s="0"/>
+      <c r="G95" s="0"/>
+      <c r="H95" s="0"/>
+      <c r="I95" s="0"/>
+      <c r="J95" s="0"/>
+      <c r="K95" s="0"/>
+      <c r="L95" s="0"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="0"/>
       <c r="O95" s="0"/>
-      <c r="P95" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="Q95" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R95" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P95" s="0"/>
+      <c r="Q95" s="0"/>
+      <c r="R95" s="0"/>
       <c r="S95" s="0"/>
       <c r="T95" s="0"/>
       <c r="U95" s="4"/>
-      <c r="V95" s="0" t="n">
-        <v>1475018</v>
-      </c>
-      <c r="W95" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V95" s="0"/>
+      <c r="W95" s="0"/>
       <c r="X95" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y95" s="0" t="inlineStr">
-        <is>
           <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z95" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA95" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB95" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y95" s="0"/>
+      <c r="Z95" s="0"/>
+      <c r="AA95" s="0"/>
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>37887</v>
@@ -11183,7 +7752,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>37888</v>
@@ -11295,7 +7864,7 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>37889</v>
@@ -11407,7 +7976,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>37890</v>
@@ -11519,7 +8088,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>38749</v>
@@ -11630,116 +8199,37 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="B101" s="0" t="n">
-        <v>38749</v>
-      </c>
-      <c r="C101" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2307568</t>
-        </is>
-      </c>
-      <c r="D101" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E101" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F101" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G101" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H101" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I101" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J101" s="0" t="inlineStr">
-        <is>
-          <t>MV.X-PRESS NUPTSE</t>
-        </is>
-      </c>
-      <c r="K101" s="0" t="inlineStr">
-        <is>
-          <t>2018/2645</t>
-        </is>
-      </c>
-      <c r="L101" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M101" s="4" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="N101" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A101" s="0"/>
+      <c r="B101" s="0"/>
+      <c r="C101" s="0"/>
+      <c r="D101" s="0"/>
+      <c r="E101" s="0"/>
+      <c r="F101" s="0"/>
+      <c r="G101" s="0"/>
+      <c r="H101" s="0"/>
+      <c r="I101" s="0"/>
+      <c r="J101" s="0"/>
+      <c r="K101" s="0"/>
+      <c r="L101" s="0"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="0"/>
       <c r="O101" s="0"/>
-      <c r="P101" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q101" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R101" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P101" s="0"/>
+      <c r="Q101" s="0"/>
+      <c r="R101" s="0"/>
       <c r="S101" s="0"/>
       <c r="T101" s="0"/>
       <c r="U101" s="4"/>
-      <c r="V101" s="0" t="n">
-        <v>1478273</v>
-      </c>
-      <c r="W101" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V101" s="0"/>
+      <c r="W101" s="0"/>
       <c r="X101" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y101" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR BOTTOM GASKET MISSING 8"</t>
         </is>
       </c>
-      <c r="Z101" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA101" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB101" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y101" s="0"/>
+      <c r="Z101" s="0"/>
+      <c r="AA101" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_42_.xlsx
+++ b/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_42_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="251.68988764044948" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="67.98988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="23.0561797752809"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="53.68988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1621,202 +1621,76 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD SCROW MISSING AT VARIOUS PLASE</t>
-        </is>
-      </c>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD SCROW MISSING AT VARIOUS PLASE", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BROKEN 12"X10"</t>
-        </is>
-      </c>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BROKEN 12\"X10\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="0"/>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
-      <c r="T10" s="0"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="0"/>
-      <c r="W10" s="0"/>
-      <c r="X10" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BROKEN/ HOLE 8"X6"</t>
-        </is>
-      </c>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
-      <c r="AA10" s="0"/>
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BROKEN/ HOLE 8\"X6\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BROKEN/ CRACKET 12"X8"</t>
-        </is>
-      </c>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BROKEN/ CRACKET 12\"X8\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR LOCKBAR BENT 2 PCS,</t>
-        </is>
-      </c>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BENT 2 PCS,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
@@ -1931,301 +1805,112 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD OIL STAIN &amp; CHEMICAL ODOUR,</t>
-        </is>
-      </c>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD OIL STAIN &amp; CHEMICAL ODOUR,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD PLY WOOD LOOSE 24"X18"</t>
-        </is>
-      </c>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD PLY WOOD LOOSE 24\"X18\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
-      <c r="T16" s="0"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
-      <c r="X16" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR LOCKBAR BENT 2 PCS</t>
-        </is>
-      </c>
-      <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
-      <c r="AA17" s="0"/>
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BENT 2 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCKBAR BENT 2 PCS(DOOR UN LOCK)</t>
-        </is>
-      </c>
-      <c r="Y18" s="0"/>
-      <c r="Z18" s="0"/>
-      <c r="AA18" s="0"/>
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR BENT 2 PCS(DOOR UN LOCK)", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR TOP GASKET CUT 6"</t>
-        </is>
-      </c>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="0"/>
-      <c r="AA19" s="0"/>
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR TOP GASKET CUT 6\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
-      <c r="R20" s="0"/>
-      <c r="S20" s="0"/>
-      <c r="T20" s="0"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
-      <c r="X20" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL CORRODED &amp; HOLE 1"X1"</t>
-        </is>
-      </c>
-      <c r="Y20" s="0"/>
-      <c r="Z20" s="0"/>
-      <c r="AA20" s="0"/>
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL CORRODED &amp; HOLE 1\"X1\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="R21" s="0"/>
-      <c r="S21" s="0"/>
-      <c r="T21" s="0"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL RUSTED &amp; CORRODED (BEDLY)</t>
-        </is>
-      </c>
-      <c r="Y21" s="0"/>
-      <c r="Z21" s="0"/>
-      <c r="AA21" s="0"/>
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL RUSTED &amp; CORRODED (BEDLY)", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0" t="inlineStr">
-        <is>
-          <t>EXTERIOR PANEL RUSTED &amp; CORRODED,</t>
-        </is>
-      </c>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERIOR PANEL RUSTED &amp; CORRODED,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
@@ -2340,103 +2025,40 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
-      <c r="Q24" s="0"/>
-      <c r="R24" s="0"/>
-      <c r="S24" s="0"/>
-      <c r="T24" s="0"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="0"/>
-      <c r="W24" s="0"/>
-      <c r="X24" s="0" t="inlineStr">
-        <is>
-          <t>FRONT ROOF PANEL HOLE 1"X1"</t>
-        </is>
-      </c>
-      <c r="Y24" s="0"/>
-      <c r="Z24" s="0"/>
-      <c r="AA24" s="0"/>
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "FRONT ROOF PANEL HOLE 1\"X1\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
-      <c r="R25" s="0"/>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="0"/>
-      <c r="W25" s="0"/>
-      <c r="X25" s="0" t="inlineStr">
-        <is>
-          <t>EXTERIOR PANEL RUSTED</t>
-        </is>
-      </c>
-      <c r="Y25" s="0"/>
-      <c r="Z25" s="0"/>
-      <c r="AA25" s="0"/>
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERIOR PANEL RUSTED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="0"/>
-      <c r="O26" s="0"/>
-      <c r="P26" s="0"/>
-      <c r="Q26" s="0"/>
-      <c r="R26" s="0"/>
-      <c r="S26" s="0"/>
-      <c r="T26" s="0"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="0"/>
-      <c r="W26" s="0"/>
-      <c r="X26" s="0" t="inlineStr">
-        <is>
-          <t>BOTH DOOR PANEL RUSTED</t>
-        </is>
-      </c>
-      <c r="Y26" s="0"/>
-      <c r="Z26" s="0"/>
-      <c r="AA26" s="0"/>
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR PANEL RUSTED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
@@ -2551,37 +2173,16 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="0"/>
-      <c r="O28" s="0"/>
-      <c r="P28" s="0"/>
-      <c r="Q28" s="0"/>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-      <c r="T28" s="0"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="0"/>
-      <c r="W28" s="0"/>
-      <c r="X28" s="0" t="inlineStr">
-        <is>
-          <t>INTERIRO PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y28" s="0"/>
-      <c r="Z28" s="0"/>
-      <c r="AA28" s="0"/>
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
@@ -3032,37 +2633,16 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
-      <c r="L33" s="0"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="0"/>
-      <c r="O33" s="0"/>
-      <c r="P33" s="0"/>
-      <c r="Q33" s="0"/>
-      <c r="R33" s="0"/>
-      <c r="S33" s="0"/>
-      <c r="T33" s="0"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="0"/>
-      <c r="W33" s="0"/>
-      <c r="X33" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y33" s="0"/>
-      <c r="Z33" s="0"/>
-      <c r="AA33" s="0"/>
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
@@ -3177,37 +2757,16 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
-      <c r="L35" s="0"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="0"/>
-      <c r="O35" s="0"/>
-      <c r="P35" s="0"/>
-      <c r="Q35" s="0"/>
-      <c r="R35" s="0"/>
-      <c r="S35" s="0"/>
-      <c r="T35" s="0"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="0"/>
-      <c r="W35" s="0"/>
-      <c r="X35" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y35" s="0"/>
-      <c r="Z35" s="0"/>
-      <c r="AA35" s="0"/>
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
@@ -3322,37 +2881,16 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
-      <c r="K37" s="0"/>
-      <c r="L37" s="0"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="0"/>
-      <c r="O37" s="0"/>
-      <c r="P37" s="0"/>
-      <c r="Q37" s="0"/>
-      <c r="R37" s="0"/>
-      <c r="S37" s="0"/>
-      <c r="T37" s="0"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="0"/>
-      <c r="W37" s="0"/>
-      <c r="X37" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y37" s="0"/>
-      <c r="Z37" s="0"/>
-      <c r="AA37" s="0"/>
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
@@ -3915,37 +3453,16 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0"/>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-      <c r="I43" s="0"/>
-      <c r="J43" s="0"/>
-      <c r="K43" s="0"/>
-      <c r="L43" s="0"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="0"/>
-      <c r="O43" s="0"/>
-      <c r="P43" s="0"/>
-      <c r="Q43" s="0"/>
-      <c r="R43" s="0"/>
-      <c r="S43" s="0"/>
-      <c r="T43" s="0"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="0"/>
-      <c r="W43" s="0"/>
-      <c r="X43" s="0" t="inlineStr">
-        <is>
-          <t>INTERIRO PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y43" s="0"/>
-      <c r="Z43" s="0"/>
-      <c r="AA43" s="0"/>
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
@@ -4060,37 +3577,16 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
-      <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
-      <c r="L45" s="0"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="0"/>
-      <c r="O45" s="0"/>
-      <c r="P45" s="0"/>
-      <c r="Q45" s="0"/>
-      <c r="R45" s="0"/>
-      <c r="S45" s="0"/>
-      <c r="T45" s="0"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="0"/>
-      <c r="W45" s="0"/>
-      <c r="X45" s="0" t="inlineStr">
-        <is>
-          <t>INTERIRO PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y45" s="0"/>
-      <c r="Z45" s="0"/>
-      <c r="AA45" s="0"/>
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
@@ -4205,37 +3701,16 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0"/>
-      <c r="B47" s="0"/>
-      <c r="C47" s="0"/>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-      <c r="I47" s="0"/>
-      <c r="J47" s="0"/>
-      <c r="K47" s="0"/>
-      <c r="L47" s="0"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="0"/>
-      <c r="O47" s="0"/>
-      <c r="P47" s="0"/>
-      <c r="Q47" s="0"/>
-      <c r="R47" s="0"/>
-      <c r="S47" s="0"/>
-      <c r="T47" s="0"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="0"/>
-      <c r="W47" s="0"/>
-      <c r="X47" s="0" t="inlineStr">
-        <is>
-          <t>INTERIRO PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y47" s="0"/>
-      <c r="Z47" s="0"/>
-      <c r="AA47" s="0"/>
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
@@ -4350,37 +3825,16 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0"/>
-      <c r="B49" s="0"/>
-      <c r="C49" s="0"/>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0"/>
-      <c r="F49" s="0"/>
-      <c r="G49" s="0"/>
-      <c r="H49" s="0"/>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
-      <c r="K49" s="0"/>
-      <c r="L49" s="0"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="0"/>
-      <c r="O49" s="0"/>
-      <c r="P49" s="0"/>
-      <c r="Q49" s="0"/>
-      <c r="R49" s="0"/>
-      <c r="S49" s="0"/>
-      <c r="T49" s="0"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="0"/>
-      <c r="W49" s="0"/>
-      <c r="X49" s="0" t="inlineStr">
-        <is>
-          <t>INTERIRO PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y49" s="0"/>
-      <c r="Z49" s="0"/>
-      <c r="AA49" s="0"/>
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
@@ -4607,37 +4061,16 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0"/>
-      <c r="B52" s="0"/>
-      <c r="C52" s="0"/>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0"/>
-      <c r="F52" s="0"/>
-      <c r="G52" s="0"/>
-      <c r="H52" s="0"/>
-      <c r="I52" s="0"/>
-      <c r="J52" s="0"/>
-      <c r="K52" s="0"/>
-      <c r="L52" s="0"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="0"/>
-      <c r="O52" s="0"/>
-      <c r="P52" s="0"/>
-      <c r="Q52" s="0"/>
-      <c r="R52" s="0"/>
-      <c r="S52" s="0"/>
-      <c r="T52" s="0"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="0"/>
-      <c r="W52" s="0"/>
-      <c r="X52" s="0" t="inlineStr">
-        <is>
-          <t>INTERIRO PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y52" s="0"/>
-      <c r="Z52" s="0"/>
-      <c r="AA52" s="0"/>
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
@@ -4752,37 +4185,16 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0"/>
-      <c r="B54" s="0"/>
-      <c r="C54" s="0"/>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0"/>
-      <c r="H54" s="0"/>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
-      <c r="K54" s="0"/>
-      <c r="L54" s="0"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="0"/>
-      <c r="O54" s="0"/>
-      <c r="P54" s="0"/>
-      <c r="Q54" s="0"/>
-      <c r="R54" s="0"/>
-      <c r="S54" s="0"/>
-      <c r="T54" s="0"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="0"/>
-      <c r="W54" s="0"/>
-      <c r="X54" s="0" t="inlineStr">
-        <is>
-          <t>ROOF BAR 10PCS,TARPULIN 01 PC,CORD 01 PC TARPULIN CUT VARIOUS PLS </t>
-        </is>
-      </c>
-      <c r="Y54" s="0"/>
-      <c r="Z54" s="0"/>
-      <c r="AA54" s="0"/>
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF BAR 10PCS,TARPULIN 01 PC,CORD 01 PC TARPULIN CUT VARIOUS PLS ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
@@ -4897,235 +4309,88 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0"/>
-      <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0"/>
-      <c r="H56" s="0"/>
-      <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
-      <c r="K56" s="0"/>
-      <c r="L56" s="0"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="0"/>
-      <c r="O56" s="0"/>
-      <c r="P56" s="0"/>
-      <c r="Q56" s="0"/>
-      <c r="R56" s="0"/>
-      <c r="S56" s="0"/>
-      <c r="T56" s="0"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="0"/>
-      <c r="W56" s="0"/>
-      <c r="X56" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y56" s="0"/>
-      <c r="Z56" s="0"/>
-      <c r="AA56" s="0"/>
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="0"/>
-      <c r="B57" s="0"/>
-      <c r="C57" s="0"/>
-      <c r="D57" s="0"/>
-      <c r="E57" s="0"/>
-      <c r="F57" s="0"/>
-      <c r="G57" s="0"/>
-      <c r="H57" s="0"/>
-      <c r="I57" s="0"/>
-      <c r="J57" s="0"/>
-      <c r="K57" s="0"/>
-      <c r="L57" s="0"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="0"/>
-      <c r="O57" s="0"/>
-      <c r="P57" s="0"/>
-      <c r="Q57" s="0"/>
-      <c r="R57" s="0"/>
-      <c r="S57" s="0"/>
-      <c r="T57" s="0"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="0"/>
-      <c r="W57" s="0"/>
-      <c r="X57" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
-        </is>
-      </c>
-      <c r="Y57" s="0"/>
-      <c r="Z57" s="0"/>
-      <c r="AA57" s="0"/>
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0"/>
-      <c r="H58" s="0"/>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
-      <c r="K58" s="0"/>
-      <c r="L58" s="0"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="0"/>
-      <c r="O58" s="0"/>
-      <c r="P58" s="0"/>
-      <c r="Q58" s="0"/>
-      <c r="R58" s="0"/>
-      <c r="S58" s="0"/>
-      <c r="T58" s="0"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="0"/>
-      <c r="W58" s="0"/>
-      <c r="X58" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCKBAR HANDLE MISSING 1 PCS</t>
-        </is>
-      </c>
-      <c r="Y58" s="0"/>
-      <c r="Z58" s="0"/>
-      <c r="AA58" s="0"/>
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR HANDLE MISSING 1 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="0"/>
-      <c r="B59" s="0"/>
-      <c r="C59" s="0"/>
-      <c r="D59" s="0"/>
-      <c r="E59" s="0"/>
-      <c r="F59" s="0"/>
-      <c r="G59" s="0"/>
-      <c r="H59" s="0"/>
-      <c r="I59" s="0"/>
-      <c r="J59" s="0"/>
-      <c r="K59" s="0"/>
-      <c r="L59" s="0"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="0"/>
-      <c r="O59" s="0"/>
-      <c r="P59" s="0"/>
-      <c r="Q59" s="0"/>
-      <c r="R59" s="0"/>
-      <c r="S59" s="0"/>
-      <c r="T59" s="0"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="0"/>
-      <c r="W59" s="0"/>
-      <c r="X59" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR LOCKBAR HANDLE MISSING 1 PCS</t>
-        </is>
-      </c>
-      <c r="Y59" s="0"/>
-      <c r="Z59" s="0"/>
-      <c r="AA59" s="0"/>
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR HANDLE MISSING 1 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="0"/>
-      <c r="B60" s="0"/>
-      <c r="C60" s="0"/>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
-      <c r="F60" s="0"/>
-      <c r="G60" s="0"/>
-      <c r="H60" s="0"/>
-      <c r="I60" s="0"/>
-      <c r="J60" s="0"/>
-      <c r="K60" s="0"/>
-      <c r="L60" s="0"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="0"/>
-      <c r="O60" s="0"/>
-      <c r="P60" s="0"/>
-      <c r="Q60" s="0"/>
-      <c r="R60" s="0"/>
-      <c r="S60" s="0"/>
-      <c r="T60" s="0"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="0"/>
-      <c r="W60" s="0"/>
-      <c r="X60" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR LOCKBAR BENT 2 PCS</t>
-        </is>
-      </c>
-      <c r="Y60" s="0"/>
-      <c r="Z60" s="0"/>
-      <c r="AA60" s="0"/>
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BENT 2 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="0"/>
-      <c r="B61" s="0"/>
-      <c r="C61" s="0"/>
-      <c r="D61" s="0"/>
-      <c r="E61" s="0"/>
-      <c r="F61" s="0"/>
-      <c r="G61" s="0"/>
-      <c r="H61" s="0"/>
-      <c r="I61" s="0"/>
-      <c r="J61" s="0"/>
-      <c r="K61" s="0"/>
-      <c r="L61" s="0"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="0"/>
-      <c r="O61" s="0"/>
-      <c r="P61" s="0"/>
-      <c r="Q61" s="0"/>
-      <c r="R61" s="0"/>
-      <c r="S61" s="0"/>
-      <c r="T61" s="0"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="0"/>
-      <c r="W61" s="0"/>
-      <c r="X61" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR TOP GASKET MISSING 3"</t>
-        </is>
-      </c>
-      <c r="Y61" s="0"/>
-      <c r="Z61" s="0"/>
-      <c r="AA61" s="0"/>
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR TOP GASKET MISSING 3\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="0"/>
-      <c r="B62" s="0"/>
-      <c r="C62" s="0"/>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
-      <c r="F62" s="0"/>
-      <c r="G62" s="0"/>
-      <c r="H62" s="0"/>
-      <c r="I62" s="0"/>
-      <c r="J62" s="0"/>
-      <c r="K62" s="0"/>
-      <c r="L62" s="0"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="0"/>
-      <c r="O62" s="0"/>
-      <c r="P62" s="0"/>
-      <c r="Q62" s="0"/>
-      <c r="R62" s="0"/>
-      <c r="S62" s="0"/>
-      <c r="T62" s="0"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="0"/>
-      <c r="W62" s="0"/>
-      <c r="X62" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL RUSTED &amp; CORRODED,</t>
-        </is>
-      </c>
-      <c r="Y62" s="0"/>
-      <c r="Z62" s="0"/>
-      <c r="AA62" s="0"/>
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL RUSTED &amp; CORRODED,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
@@ -5240,70 +4505,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0"/>
-      <c r="B64" s="0"/>
-      <c r="C64" s="0"/>
-      <c r="D64" s="0"/>
-      <c r="E64" s="0"/>
-      <c r="F64" s="0"/>
-      <c r="G64" s="0"/>
-      <c r="H64" s="0"/>
-      <c r="I64" s="0"/>
-      <c r="J64" s="0"/>
-      <c r="K64" s="0"/>
-      <c r="L64" s="0"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="0"/>
-      <c r="O64" s="0"/>
-      <c r="P64" s="0"/>
-      <c r="Q64" s="0"/>
-      <c r="R64" s="0"/>
-      <c r="S64" s="0"/>
-      <c r="T64" s="0"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="0"/>
-      <c r="W64" s="0"/>
-      <c r="X64" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BROKEN 60'X60'</t>
-        </is>
-      </c>
-      <c r="Y64" s="0"/>
-      <c r="Z64" s="0"/>
-      <c r="AA64" s="0"/>
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD BROKEN 60'X60'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="0"/>
-      <c r="B65" s="0"/>
-      <c r="C65" s="0"/>
-      <c r="D65" s="0"/>
-      <c r="E65" s="0"/>
-      <c r="F65" s="0"/>
-      <c r="G65" s="0"/>
-      <c r="H65" s="0"/>
-      <c r="I65" s="0"/>
-      <c r="J65" s="0"/>
-      <c r="K65" s="0"/>
-      <c r="L65" s="0"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="0"/>
-      <c r="O65" s="0"/>
-      <c r="P65" s="0"/>
-      <c r="Q65" s="0"/>
-      <c r="R65" s="0"/>
-      <c r="S65" s="0"/>
-      <c r="T65" s="0"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="0"/>
-      <c r="W65" s="0"/>
-      <c r="X65" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY &amp; SCRATCH</t>
-        </is>
-      </c>
-      <c r="Y65" s="0"/>
-      <c r="Z65" s="0"/>
-      <c r="AA65" s="0"/>
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY &amp; SCRATCH", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
@@ -5418,37 +4641,16 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0"/>
-      <c r="B67" s="0"/>
-      <c r="C67" s="0"/>
-      <c r="D67" s="0"/>
-      <c r="E67" s="0"/>
-      <c r="F67" s="0"/>
-      <c r="G67" s="0"/>
-      <c r="H67" s="0"/>
-      <c r="I67" s="0"/>
-      <c r="J67" s="0"/>
-      <c r="K67" s="0"/>
-      <c r="L67" s="0"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="0"/>
-      <c r="O67" s="0"/>
-      <c r="P67" s="0"/>
-      <c r="Q67" s="0"/>
-      <c r="R67" s="0"/>
-      <c r="S67" s="0"/>
-      <c r="T67" s="0"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="0"/>
-      <c r="W67" s="0"/>
-      <c r="X67" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y67" s="0"/>
-      <c r="Z67" s="0"/>
-      <c r="AA67" s="0"/>
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
@@ -5563,70 +4765,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0"/>
-      <c r="B69" s="0"/>
-      <c r="C69" s="0"/>
-      <c r="D69" s="0"/>
-      <c r="E69" s="0"/>
-      <c r="F69" s="0"/>
-      <c r="G69" s="0"/>
-      <c r="H69" s="0"/>
-      <c r="I69" s="0"/>
-      <c r="J69" s="0"/>
-      <c r="K69" s="0"/>
-      <c r="L69" s="0"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="0"/>
-      <c r="O69" s="0"/>
-      <c r="P69" s="0"/>
-      <c r="Q69" s="0"/>
-      <c r="R69" s="0"/>
-      <c r="S69" s="0"/>
-      <c r="T69" s="0"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="0"/>
-      <c r="W69" s="0"/>
-      <c r="X69" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y69" s="0"/>
-      <c r="Z69" s="0"/>
-      <c r="AA69" s="0"/>
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="0"/>
-      <c r="B70" s="0"/>
-      <c r="C70" s="0"/>
-      <c r="D70" s="0"/>
-      <c r="E70" s="0"/>
-      <c r="F70" s="0"/>
-      <c r="G70" s="0"/>
-      <c r="H70" s="0"/>
-      <c r="I70" s="0"/>
-      <c r="J70" s="0"/>
-      <c r="K70" s="0"/>
-      <c r="L70" s="0"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="0"/>
-      <c r="O70" s="0"/>
-      <c r="P70" s="0"/>
-      <c r="Q70" s="0"/>
-      <c r="R70" s="0"/>
-      <c r="S70" s="0"/>
-      <c r="T70" s="0"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="0"/>
-      <c r="W70" s="0"/>
-      <c r="X70" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR BOTTOM GASKET LOOSE 8'</t>
-        </is>
-      </c>
-      <c r="Y70" s="0"/>
-      <c r="Z70" s="0"/>
-      <c r="AA70" s="0"/>
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM GASKET LOOSE 8'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
@@ -5853,37 +5013,16 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0"/>
-      <c r="B73" s="0"/>
-      <c r="C73" s="0"/>
-      <c r="D73" s="0"/>
-      <c r="E73" s="0"/>
-      <c r="F73" s="0"/>
-      <c r="G73" s="0"/>
-      <c r="H73" s="0"/>
-      <c r="I73" s="0"/>
-      <c r="J73" s="0"/>
-      <c r="K73" s="0"/>
-      <c r="L73" s="0"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="0"/>
-      <c r="O73" s="0"/>
-      <c r="P73" s="0"/>
-      <c r="Q73" s="0"/>
-      <c r="R73" s="0"/>
-      <c r="S73" s="0"/>
-      <c r="T73" s="0"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="0"/>
-      <c r="W73" s="0"/>
-      <c r="X73" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR LOCKBAR BENT 1 PCS,</t>
-        </is>
-      </c>
-      <c r="Y73" s="0"/>
-      <c r="Z73" s="0"/>
-      <c r="AA73" s="0"/>
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
@@ -5998,37 +5137,16 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0"/>
-      <c r="B75" s="0"/>
-      <c r="C75" s="0"/>
-      <c r="D75" s="0"/>
-      <c r="E75" s="0"/>
-      <c r="F75" s="0"/>
-      <c r="G75" s="0"/>
-      <c r="H75" s="0"/>
-      <c r="I75" s="0"/>
-      <c r="J75" s="0"/>
-      <c r="K75" s="0"/>
-      <c r="L75" s="0"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="0"/>
-      <c r="O75" s="0"/>
-      <c r="P75" s="0"/>
-      <c r="Q75" s="0"/>
-      <c r="R75" s="0"/>
-      <c r="S75" s="0"/>
-      <c r="T75" s="0"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="0"/>
-      <c r="W75" s="0"/>
-      <c r="X75" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANLE CORRODED HOLE 2" AT 04PLS</t>
-        </is>
-      </c>
-      <c r="Y75" s="0"/>
-      <c r="Z75" s="0"/>
-      <c r="AA75" s="0"/>
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANLE CORRODED HOLE 2\" AT 04PLS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
@@ -6143,37 +5261,16 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0"/>
-      <c r="B77" s="0"/>
-      <c r="C77" s="0"/>
-      <c r="D77" s="0"/>
-      <c r="E77" s="0"/>
-      <c r="F77" s="0"/>
-      <c r="G77" s="0"/>
-      <c r="H77" s="0"/>
-      <c r="I77" s="0"/>
-      <c r="J77" s="0"/>
-      <c r="K77" s="0"/>
-      <c r="L77" s="0"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="0"/>
-      <c r="O77" s="0"/>
-      <c r="P77" s="0"/>
-      <c r="Q77" s="0"/>
-      <c r="R77" s="0"/>
-      <c r="S77" s="0"/>
-      <c r="T77" s="0"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="0"/>
-      <c r="W77" s="0"/>
-      <c r="X77" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y77" s="0"/>
-      <c r="Z77" s="0"/>
-      <c r="AA77" s="0"/>
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
@@ -6288,37 +5385,16 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0"/>
-      <c r="B79" s="0"/>
-      <c r="C79" s="0"/>
-      <c r="D79" s="0"/>
-      <c r="E79" s="0"/>
-      <c r="F79" s="0"/>
-      <c r="G79" s="0"/>
-      <c r="H79" s="0"/>
-      <c r="I79" s="0"/>
-      <c r="J79" s="0"/>
-      <c r="K79" s="0"/>
-      <c r="L79" s="0"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="0"/>
-      <c r="O79" s="0"/>
-      <c r="P79" s="0"/>
-      <c r="Q79" s="0"/>
-      <c r="R79" s="0"/>
-      <c r="S79" s="0"/>
-      <c r="T79" s="0"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="0"/>
-      <c r="W79" s="0"/>
-      <c r="X79" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y79" s="0"/>
-      <c r="Z79" s="0"/>
-      <c r="AA79" s="0"/>
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
@@ -6433,37 +5509,16 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0"/>
-      <c r="B81" s="0"/>
-      <c r="C81" s="0"/>
-      <c r="D81" s="0"/>
-      <c r="E81" s="0"/>
-      <c r="F81" s="0"/>
-      <c r="G81" s="0"/>
-      <c r="H81" s="0"/>
-      <c r="I81" s="0"/>
-      <c r="J81" s="0"/>
-      <c r="K81" s="0"/>
-      <c r="L81" s="0"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="0"/>
-      <c r="O81" s="0"/>
-      <c r="P81" s="0"/>
-      <c r="Q81" s="0"/>
-      <c r="R81" s="0"/>
-      <c r="S81" s="0"/>
-      <c r="T81" s="0"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="0"/>
-      <c r="W81" s="0"/>
-      <c r="X81" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y81" s="0"/>
-      <c r="Z81" s="0"/>
-      <c r="AA81" s="0"/>
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
@@ -6578,37 +5633,16 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0"/>
-      <c r="B83" s="0"/>
-      <c r="C83" s="0"/>
-      <c r="D83" s="0"/>
-      <c r="E83" s="0"/>
-      <c r="F83" s="0"/>
-      <c r="G83" s="0"/>
-      <c r="H83" s="0"/>
-      <c r="I83" s="0"/>
-      <c r="J83" s="0"/>
-      <c r="K83" s="0"/>
-      <c r="L83" s="0"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="0"/>
-      <c r="O83" s="0"/>
-      <c r="P83" s="0"/>
-      <c r="Q83" s="0"/>
-      <c r="R83" s="0"/>
-      <c r="S83" s="0"/>
-      <c r="T83" s="0"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="0"/>
-      <c r="W83" s="0"/>
-      <c r="X83" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y83" s="0"/>
-      <c r="Z83" s="0"/>
-      <c r="AA83" s="0"/>
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
@@ -6723,37 +5757,16 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="0"/>
-      <c r="B85" s="0"/>
-      <c r="C85" s="0"/>
-      <c r="D85" s="0"/>
-      <c r="E85" s="0"/>
-      <c r="F85" s="0"/>
-      <c r="G85" s="0"/>
-      <c r="H85" s="0"/>
-      <c r="I85" s="0"/>
-      <c r="J85" s="0"/>
-      <c r="K85" s="0"/>
-      <c r="L85" s="0"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="0"/>
-      <c r="O85" s="0"/>
-      <c r="P85" s="0"/>
-      <c r="Q85" s="0"/>
-      <c r="R85" s="0"/>
-      <c r="S85" s="0"/>
-      <c r="T85" s="0"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="0"/>
-      <c r="W85" s="0"/>
-      <c r="X85" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y85" s="0"/>
-      <c r="Z85" s="0"/>
-      <c r="AA85" s="0"/>
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
@@ -6980,37 +5993,16 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="0"/>
-      <c r="B88" s="0"/>
-      <c r="C88" s="0"/>
-      <c r="D88" s="0"/>
-      <c r="E88" s="0"/>
-      <c r="F88" s="0"/>
-      <c r="G88" s="0"/>
-      <c r="H88" s="0"/>
-      <c r="I88" s="0"/>
-      <c r="J88" s="0"/>
-      <c r="K88" s="0"/>
-      <c r="L88" s="0"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="0"/>
-      <c r="O88" s="0"/>
-      <c r="P88" s="0"/>
-      <c r="Q88" s="0"/>
-      <c r="R88" s="0"/>
-      <c r="S88" s="0"/>
-      <c r="T88" s="0"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="0"/>
-      <c r="W88" s="0"/>
-      <c r="X88" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y88" s="0"/>
-      <c r="Z88" s="0"/>
-      <c r="AA88" s="0"/>
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
@@ -7461,37 +6453,16 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="0"/>
-      <c r="B93" s="0"/>
-      <c r="C93" s="0"/>
-      <c r="D93" s="0"/>
-      <c r="E93" s="0"/>
-      <c r="F93" s="0"/>
-      <c r="G93" s="0"/>
-      <c r="H93" s="0"/>
-      <c r="I93" s="0"/>
-      <c r="J93" s="0"/>
-      <c r="K93" s="0"/>
-      <c r="L93" s="0"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="0"/>
-      <c r="O93" s="0"/>
-      <c r="P93" s="0"/>
-      <c r="Q93" s="0"/>
-      <c r="R93" s="0"/>
-      <c r="S93" s="0"/>
-      <c r="T93" s="0"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="0"/>
-      <c r="W93" s="0"/>
-      <c r="X93" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
-        </is>
-      </c>
-      <c r="Y93" s="0"/>
-      <c r="Z93" s="0"/>
-      <c r="AA93" s="0"/>
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
@@ -7606,37 +6577,16 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="0"/>
-      <c r="B95" s="0"/>
-      <c r="C95" s="0"/>
-      <c r="D95" s="0"/>
-      <c r="E95" s="0"/>
-      <c r="F95" s="0"/>
-      <c r="G95" s="0"/>
-      <c r="H95" s="0"/>
-      <c r="I95" s="0"/>
-      <c r="J95" s="0"/>
-      <c r="K95" s="0"/>
-      <c r="L95" s="0"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="0"/>
-      <c r="O95" s="0"/>
-      <c r="P95" s="0"/>
-      <c r="Q95" s="0"/>
-      <c r="R95" s="0"/>
-      <c r="S95" s="0"/>
-      <c r="T95" s="0"/>
-      <c r="U95" s="4"/>
-      <c r="V95" s="0"/>
-      <c r="W95" s="0"/>
-      <c r="X95" s="0" t="inlineStr">
-        <is>
-          <t>INTERIRO PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y95" s="0"/>
-      <c r="Z95" s="0"/>
-      <c r="AA95" s="0"/>
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
@@ -8199,37 +7149,16 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="0"/>
-      <c r="B101" s="0"/>
-      <c r="C101" s="0"/>
-      <c r="D101" s="0"/>
-      <c r="E101" s="0"/>
-      <c r="F101" s="0"/>
-      <c r="G101" s="0"/>
-      <c r="H101" s="0"/>
-      <c r="I101" s="0"/>
-      <c r="J101" s="0"/>
-      <c r="K101" s="0"/>
-      <c r="L101" s="0"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="0"/>
-      <c r="O101" s="0"/>
-      <c r="P101" s="0"/>
-      <c r="Q101" s="0"/>
-      <c r="R101" s="0"/>
-      <c r="S101" s="0"/>
-      <c r="T101" s="0"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="0"/>
-      <c r="W101" s="0"/>
-      <c r="X101" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR BOTTOM GASKET MISSING 8"</t>
-        </is>
-      </c>
-      <c r="Y101" s="0"/>
-      <c r="Z101" s="0"/>
-      <c r="AA101" s="0"/>
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM GASKET MISSING 8\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_42_.xlsx
+++ b/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_42_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="251.68988764044948" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="23.0561797752809"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="53.68988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="67.98988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1626,9 +1626,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD SCROW MISSING AT VARIOUS PLASE", "", "", ""]</t>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD SCROW MISSING AT VARIOUS PLASE</t>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1638,9 +1684,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X8" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB8" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1650,9 +1742,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BROKEN 12\"X10\"", "", "", ""]</t>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BROKEN 12"X10"</t>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB9" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1662,9 +1800,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BROKEN/ HOLE 8\"X6\"", "", "", ""]</t>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X10" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y10" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BROKEN/ HOLE 8"X6"</t>
+        </is>
+      </c>
+      <c r="Z10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB10" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1674,9 +1858,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BROKEN/ CRACKET 12\"X8\"", "", "", ""]</t>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BROKEN/ CRACKET 12"X8"</t>
+        </is>
+      </c>
+      <c r="Z11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB11" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1686,9 +1916,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BENT 2 PCS,", "", "", ""]</t>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X12" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y12" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR LOCKBAR BENT 2 PCS,</t>
+        </is>
+      </c>
+      <c r="Z12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB12" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1810,9 +2086,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD OIL STAIN &amp; CHEMICAL ODOUR,", "", "", ""]</t>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y14" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD OIL STAIN &amp; CHEMICAL ODOUR,</t>
+        </is>
+      </c>
+      <c r="Z14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB14" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1822,9 +2144,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD PLY WOOD LOOSE 24\"X18\"", "", "", ""]</t>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD PLY WOOD LOOSE 24"X18"</t>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB15" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1834,9 +2202,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X16" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y16" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB16" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1846,9 +2260,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BENT 2 PCS", "", "", ""]</t>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X17" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y17" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR LOCKBAR BENT 2 PCS</t>
+        </is>
+      </c>
+      <c r="Z17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB17" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1858,9 +2318,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR BENT 2 PCS(DOOR UN LOCK)", "", "", ""]</t>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X18" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y18" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCKBAR BENT 2 PCS(DOOR UN LOCK)</t>
+        </is>
+      </c>
+      <c r="Z18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB18" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1870,9 +2376,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR TOP GASKET CUT 6\"", "", "", ""]</t>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X19" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y19" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR TOP GASKET CUT 6"</t>
+        </is>
+      </c>
+      <c r="Z19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB19" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1882,9 +2434,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL CORRODED &amp; HOLE 1\"X1\"", "", "", ""]</t>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="0"/>
+      <c r="W20" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X20" s="0" t="inlineStr">
+        <is>
+          <t>Roof panel-(Roof panel)</t>
+        </is>
+      </c>
+      <c r="Y20" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL CORRODED &amp; HOLE 1"X1"</t>
+        </is>
+      </c>
+      <c r="Z20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB20" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1894,9 +2492,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL RUSTED &amp; CORRODED (BEDLY)", "", "", ""]</t>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X21" s="0" t="inlineStr">
+        <is>
+          <t>Roof panel-(Roof panel)</t>
+        </is>
+      </c>
+      <c r="Y21" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL RUSTED &amp; CORRODED (BEDLY)</t>
+        </is>
+      </c>
+      <c r="Z21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB21" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1906,9 +2550,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERIOR PANEL RUSTED &amp; CORRODED,", "", "", ""]</t>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X22" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y22" s="0" t="inlineStr">
+        <is>
+          <t>EXTERIOR PANEL RUSTED &amp; CORRODED,</t>
+        </is>
+      </c>
+      <c r="Z22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB22" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2030,9 +2720,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "FRONT ROOF PANEL HOLE 1\"X1\"", "", "", ""]</t>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X24" s="0" t="inlineStr">
+        <is>
+          <t>Roof panel-(Roof panel)</t>
+        </is>
+      </c>
+      <c r="Y24" s="0" t="inlineStr">
+        <is>
+          <t>FRONT ROOF PANEL HOLE 1"X1"</t>
+        </is>
+      </c>
+      <c r="Z24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB24" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2042,9 +2778,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERIOR PANEL RUSTED", "", "", ""]</t>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X25" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y25" s="0" t="inlineStr">
+        <is>
+          <t>EXTERIOR PANEL RUSTED</t>
+        </is>
+      </c>
+      <c r="Z25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB25" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2054,9 +2836,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR PANEL RUSTED", "", "", ""]</t>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X26" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y26" s="0" t="inlineStr">
+        <is>
+          <t>BOTH DOOR PANEL RUSTED</t>
+        </is>
+      </c>
+      <c r="Z26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB26" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2178,9 +3006,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X28" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y28" s="0" t="inlineStr">
+        <is>
+          <t>INTERIRO PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB28" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2638,9 +3512,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X33" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y33" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB33" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2762,9 +3682,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X35" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y35" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB35" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2886,9 +3852,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
+      <c r="S37" s="0"/>
+      <c r="T37" s="0"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="0"/>
+      <c r="W37" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X37" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y37" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB37" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3458,9 +4470,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B43" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="0"/>
+      <c r="O43" s="0"/>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
+      <c r="S43" s="0"/>
+      <c r="T43" s="0"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X43" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y43" s="0" t="inlineStr">
+        <is>
+          <t>INTERIRO PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z43" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA43" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB43" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3582,9 +4640,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B45" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
+      <c r="S45" s="0"/>
+      <c r="T45" s="0"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="0"/>
+      <c r="W45" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X45" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y45" s="0" t="inlineStr">
+        <is>
+          <t>INTERIRO PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB45" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3706,9 +4810,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B47" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="0"/>
+      <c r="O47" s="0"/>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
+      <c r="S47" s="0"/>
+      <c r="T47" s="0"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="0"/>
+      <c r="W47" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X47" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y47" s="0" t="inlineStr">
+        <is>
+          <t>INTERIRO PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z47" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA47" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB47" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3830,9 +4980,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B49" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="0"/>
+      <c r="O49" s="0"/>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
+      <c r="S49" s="0"/>
+      <c r="T49" s="0"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="0"/>
+      <c r="W49" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X49" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y49" s="0" t="inlineStr">
+        <is>
+          <t>INTERIRO PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z49" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA49" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB49" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4066,9 +5262,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B52" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0"/>
+      <c r="H52" s="0"/>
+      <c r="I52" s="0"/>
+      <c r="J52" s="0"/>
+      <c r="K52" s="0"/>
+      <c r="L52" s="0"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="0"/>
+      <c r="O52" s="0"/>
+      <c r="P52" s="0"/>
+      <c r="Q52" s="0"/>
+      <c r="R52" s="0"/>
+      <c r="S52" s="0"/>
+      <c r="T52" s="0"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="0"/>
+      <c r="W52" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X52" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y52" s="0" t="inlineStr">
+        <is>
+          <t>INTERIRO PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z52" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA52" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB52" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4190,9 +5432,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B54" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF BAR 10PCS,TARPULIN 01 PC,CORD 01 PC TARPULIN CUT VARIOUS PLS ", "", "", ""]</t>
+      <c r="B54" s="0"/>
+      <c r="C54" s="0"/>
+      <c r="D54" s="0"/>
+      <c r="E54" s="0"/>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0"/>
+      <c r="H54" s="0"/>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0"/>
+      <c r="K54" s="0"/>
+      <c r="L54" s="0"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="0"/>
+      <c r="O54" s="0"/>
+      <c r="P54" s="0"/>
+      <c r="Q54" s="0"/>
+      <c r="R54" s="0"/>
+      <c r="S54" s="0"/>
+      <c r="T54" s="0"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="0"/>
+      <c r="W54" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X54" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y54" s="0" t="inlineStr">
+        <is>
+          <t>ROOF BAR 10PCS,TARPULIN 01 PC,CORD 01 PC TARPULIN CUT VARIOUS PLS </t>
+        </is>
+      </c>
+      <c r="Z54" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA54" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB54" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4314,9 +5602,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B56" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+      <c r="L56" s="0"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="0"/>
+      <c r="O56" s="0"/>
+      <c r="P56" s="0"/>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="0"/>
+      <c r="S56" s="0"/>
+      <c r="T56" s="0"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="0"/>
+      <c r="W56" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X56" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y56" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z56" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA56" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB56" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4326,9 +5660,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B57" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+      <c r="B57" s="0"/>
+      <c r="C57" s="0"/>
+      <c r="D57" s="0"/>
+      <c r="E57" s="0"/>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0"/>
+      <c r="H57" s="0"/>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
+      <c r="K57" s="0"/>
+      <c r="L57" s="0"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="0"/>
+      <c r="O57" s="0"/>
+      <c r="P57" s="0"/>
+      <c r="Q57" s="0"/>
+      <c r="R57" s="0"/>
+      <c r="S57" s="0"/>
+      <c r="T57" s="0"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="0"/>
+      <c r="W57" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X57" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y57" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
+        </is>
+      </c>
+      <c r="Z57" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA57" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB57" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4338,9 +5718,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B58" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR HANDLE MISSING 1 PCS", "", "", ""]</t>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="0"/>
+      <c r="O58" s="0"/>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
+      <c r="S58" s="0"/>
+      <c r="T58" s="0"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X58" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y58" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCKBAR HANDLE MISSING 1 PCS</t>
+        </is>
+      </c>
+      <c r="Z58" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA58" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB58" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4350,9 +5776,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B59" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR HANDLE MISSING 1 PCS", "", "", ""]</t>
+      <c r="B59" s="0"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0"/>
+      <c r="H59" s="0"/>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
+      <c r="K59" s="0"/>
+      <c r="L59" s="0"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="0"/>
+      <c r="O59" s="0"/>
+      <c r="P59" s="0"/>
+      <c r="Q59" s="0"/>
+      <c r="R59" s="0"/>
+      <c r="S59" s="0"/>
+      <c r="T59" s="0"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="0"/>
+      <c r="W59" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X59" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y59" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR LOCKBAR HANDLE MISSING 1 PCS</t>
+        </is>
+      </c>
+      <c r="Z59" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA59" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB59" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4362,9 +5834,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B60" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCKBAR BENT 2 PCS", "", "", ""]</t>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+      <c r="H60" s="0"/>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
+      <c r="K60" s="0"/>
+      <c r="L60" s="0"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="0"/>
+      <c r="O60" s="0"/>
+      <c r="P60" s="0"/>
+      <c r="Q60" s="0"/>
+      <c r="R60" s="0"/>
+      <c r="S60" s="0"/>
+      <c r="T60" s="0"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="0"/>
+      <c r="W60" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X60" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y60" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR LOCKBAR BENT 2 PCS</t>
+        </is>
+      </c>
+      <c r="Z60" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA60" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB60" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4374,9 +5892,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B61" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR TOP GASKET MISSING 3\"", "", "", ""]</t>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+      <c r="G61" s="0"/>
+      <c r="H61" s="0"/>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
+      <c r="K61" s="0"/>
+      <c r="L61" s="0"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="0"/>
+      <c r="O61" s="0"/>
+      <c r="P61" s="0"/>
+      <c r="Q61" s="0"/>
+      <c r="R61" s="0"/>
+      <c r="S61" s="0"/>
+      <c r="T61" s="0"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="0"/>
+      <c r="W61" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X61" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y61" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR TOP GASKET MISSING 3"</t>
+        </is>
+      </c>
+      <c r="Z61" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA61" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB61" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4386,9 +5950,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B62" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL RUSTED &amp; CORRODED,", "", "", ""]</t>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+      <c r="G62" s="0"/>
+      <c r="H62" s="0"/>
+      <c r="I62" s="0"/>
+      <c r="J62" s="0"/>
+      <c r="K62" s="0"/>
+      <c r="L62" s="0"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="0"/>
+      <c r="O62" s="0"/>
+      <c r="P62" s="0"/>
+      <c r="Q62" s="0"/>
+      <c r="R62" s="0"/>
+      <c r="S62" s="0"/>
+      <c r="T62" s="0"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="0"/>
+      <c r="W62" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X62" s="0" t="inlineStr">
+        <is>
+          <t>Roof panel-(Roof panel)</t>
+        </is>
+      </c>
+      <c r="Y62" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL RUSTED &amp; CORRODED,</t>
+        </is>
+      </c>
+      <c r="Z62" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA62" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB62" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4510,9 +6120,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B64" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD BROKEN 60'X60'", "", "", ""]</t>
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
+      <c r="L64" s="0"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="0"/>
+      <c r="O64" s="0"/>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
+      <c r="R64" s="0"/>
+      <c r="S64" s="0"/>
+      <c r="T64" s="0"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="0"/>
+      <c r="W64" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X64" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y64" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BROKEN 60'X60'</t>
+        </is>
+      </c>
+      <c r="Z64" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA64" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB64" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4522,9 +6178,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B65" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY &amp; SCRATCH", "", "", ""]</t>
+      <c r="B65" s="0"/>
+      <c r="C65" s="0"/>
+      <c r="D65" s="0"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
+      <c r="G65" s="0"/>
+      <c r="H65" s="0"/>
+      <c r="I65" s="0"/>
+      <c r="J65" s="0"/>
+      <c r="K65" s="0"/>
+      <c r="L65" s="0"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="0"/>
+      <c r="O65" s="0"/>
+      <c r="P65" s="0"/>
+      <c r="Q65" s="0"/>
+      <c r="R65" s="0"/>
+      <c r="S65" s="0"/>
+      <c r="T65" s="0"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="0"/>
+      <c r="W65" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X65" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y65" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY &amp; SCRATCH</t>
+        </is>
+      </c>
+      <c r="Z65" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA65" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB65" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4646,9 +6348,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B67" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B67" s="0"/>
+      <c r="C67" s="0"/>
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+      <c r="G67" s="0"/>
+      <c r="H67" s="0"/>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0"/>
+      <c r="K67" s="0"/>
+      <c r="L67" s="0"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="0"/>
+      <c r="O67" s="0"/>
+      <c r="P67" s="0"/>
+      <c r="Q67" s="0"/>
+      <c r="R67" s="0"/>
+      <c r="S67" s="0"/>
+      <c r="T67" s="0"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="0"/>
+      <c r="W67" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X67" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y67" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z67" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA67" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB67" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4770,9 +6518,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B69" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0"/>
+      <c r="K69" s="0"/>
+      <c r="L69" s="0"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="0"/>
+      <c r="O69" s="0"/>
+      <c r="P69" s="0"/>
+      <c r="Q69" s="0"/>
+      <c r="R69" s="0"/>
+      <c r="S69" s="0"/>
+      <c r="T69" s="0"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="0"/>
+      <c r="W69" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X69" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y69" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z69" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA69" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB69" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4782,9 +6576,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B70" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM GASKET LOOSE 8'", "", "", ""]</t>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
+      <c r="G70" s="0"/>
+      <c r="H70" s="0"/>
+      <c r="I70" s="0"/>
+      <c r="J70" s="0"/>
+      <c r="K70" s="0"/>
+      <c r="L70" s="0"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="0"/>
+      <c r="O70" s="0"/>
+      <c r="P70" s="0"/>
+      <c r="Q70" s="0"/>
+      <c r="R70" s="0"/>
+      <c r="S70" s="0"/>
+      <c r="T70" s="0"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="0"/>
+      <c r="W70" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X70" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y70" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR BOTTOM GASKET LOOSE 8'</t>
+        </is>
+      </c>
+      <c r="Z70" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA70" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB70" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5018,9 +6858,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B73" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+      <c r="B73" s="0"/>
+      <c r="C73" s="0"/>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+      <c r="G73" s="0"/>
+      <c r="H73" s="0"/>
+      <c r="I73" s="0"/>
+      <c r="J73" s="0"/>
+      <c r="K73" s="0"/>
+      <c r="L73" s="0"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="0"/>
+      <c r="O73" s="0"/>
+      <c r="P73" s="0"/>
+      <c r="Q73" s="0"/>
+      <c r="R73" s="0"/>
+      <c r="S73" s="0"/>
+      <c r="T73" s="0"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="0"/>
+      <c r="W73" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X73" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y73" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR LOCKBAR BENT 1 PCS,</t>
+        </is>
+      </c>
+      <c r="Z73" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA73" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB73" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5142,9 +7028,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B75" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANLE CORRODED HOLE 2\" AT 04PLS", "", "", ""]</t>
+      <c r="B75" s="0"/>
+      <c r="C75" s="0"/>
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
+      <c r="F75" s="0"/>
+      <c r="G75" s="0"/>
+      <c r="H75" s="0"/>
+      <c r="I75" s="0"/>
+      <c r="J75" s="0"/>
+      <c r="K75" s="0"/>
+      <c r="L75" s="0"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="0"/>
+      <c r="O75" s="0"/>
+      <c r="P75" s="0"/>
+      <c r="Q75" s="0"/>
+      <c r="R75" s="0"/>
+      <c r="S75" s="0"/>
+      <c r="T75" s="0"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="0"/>
+      <c r="W75" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X75" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y75" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANLE CORRODED HOLE 2" AT 04PLS</t>
+        </is>
+      </c>
+      <c r="Z75" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA75" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB75" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5266,9 +7198,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B77" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="H77" s="0"/>
+      <c r="I77" s="0"/>
+      <c r="J77" s="0"/>
+      <c r="K77" s="0"/>
+      <c r="L77" s="0"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="0"/>
+      <c r="O77" s="0"/>
+      <c r="P77" s="0"/>
+      <c r="Q77" s="0"/>
+      <c r="R77" s="0"/>
+      <c r="S77" s="0"/>
+      <c r="T77" s="0"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="0"/>
+      <c r="W77" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X77" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y77" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z77" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA77" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB77" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5390,9 +7368,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B79" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B79" s="0"/>
+      <c r="C79" s="0"/>
+      <c r="D79" s="0"/>
+      <c r="E79" s="0"/>
+      <c r="F79" s="0"/>
+      <c r="G79" s="0"/>
+      <c r="H79" s="0"/>
+      <c r="I79" s="0"/>
+      <c r="J79" s="0"/>
+      <c r="K79" s="0"/>
+      <c r="L79" s="0"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="0"/>
+      <c r="O79" s="0"/>
+      <c r="P79" s="0"/>
+      <c r="Q79" s="0"/>
+      <c r="R79" s="0"/>
+      <c r="S79" s="0"/>
+      <c r="T79" s="0"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="0"/>
+      <c r="W79" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X79" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y79" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z79" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA79" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB79" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5514,9 +7538,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B81" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B81" s="0"/>
+      <c r="C81" s="0"/>
+      <c r="D81" s="0"/>
+      <c r="E81" s="0"/>
+      <c r="F81" s="0"/>
+      <c r="G81" s="0"/>
+      <c r="H81" s="0"/>
+      <c r="I81" s="0"/>
+      <c r="J81" s="0"/>
+      <c r="K81" s="0"/>
+      <c r="L81" s="0"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="0"/>
+      <c r="O81" s="0"/>
+      <c r="P81" s="0"/>
+      <c r="Q81" s="0"/>
+      <c r="R81" s="0"/>
+      <c r="S81" s="0"/>
+      <c r="T81" s="0"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="0"/>
+      <c r="W81" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X81" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y81" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z81" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA81" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB81" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5638,9 +7708,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B83" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B83" s="0"/>
+      <c r="C83" s="0"/>
+      <c r="D83" s="0"/>
+      <c r="E83" s="0"/>
+      <c r="F83" s="0"/>
+      <c r="G83" s="0"/>
+      <c r="H83" s="0"/>
+      <c r="I83" s="0"/>
+      <c r="J83" s="0"/>
+      <c r="K83" s="0"/>
+      <c r="L83" s="0"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="0"/>
+      <c r="O83" s="0"/>
+      <c r="P83" s="0"/>
+      <c r="Q83" s="0"/>
+      <c r="R83" s="0"/>
+      <c r="S83" s="0"/>
+      <c r="T83" s="0"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="0"/>
+      <c r="W83" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X83" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y83" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z83" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA83" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB83" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5762,9 +7878,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B85" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B85" s="0"/>
+      <c r="C85" s="0"/>
+      <c r="D85" s="0"/>
+      <c r="E85" s="0"/>
+      <c r="F85" s="0"/>
+      <c r="G85" s="0"/>
+      <c r="H85" s="0"/>
+      <c r="I85" s="0"/>
+      <c r="J85" s="0"/>
+      <c r="K85" s="0"/>
+      <c r="L85" s="0"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="0"/>
+      <c r="O85" s="0"/>
+      <c r="P85" s="0"/>
+      <c r="Q85" s="0"/>
+      <c r="R85" s="0"/>
+      <c r="S85" s="0"/>
+      <c r="T85" s="0"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="0"/>
+      <c r="W85" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X85" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y85" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z85" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA85" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB85" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5998,9 +8160,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B88" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B88" s="0"/>
+      <c r="C88" s="0"/>
+      <c r="D88" s="0"/>
+      <c r="E88" s="0"/>
+      <c r="F88" s="0"/>
+      <c r="G88" s="0"/>
+      <c r="H88" s="0"/>
+      <c r="I88" s="0"/>
+      <c r="J88" s="0"/>
+      <c r="K88" s="0"/>
+      <c r="L88" s="0"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="0"/>
+      <c r="O88" s="0"/>
+      <c r="P88" s="0"/>
+      <c r="Q88" s="0"/>
+      <c r="R88" s="0"/>
+      <c r="S88" s="0"/>
+      <c r="T88" s="0"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="0"/>
+      <c r="W88" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X88" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y88" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z88" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA88" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB88" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6458,9 +8666,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B93" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKBAR BENT 1 PCS,", "", "", ""]</t>
+      <c r="B93" s="0"/>
+      <c r="C93" s="0"/>
+      <c r="D93" s="0"/>
+      <c r="E93" s="0"/>
+      <c r="F93" s="0"/>
+      <c r="G93" s="0"/>
+      <c r="H93" s="0"/>
+      <c r="I93" s="0"/>
+      <c r="J93" s="0"/>
+      <c r="K93" s="0"/>
+      <c r="L93" s="0"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="0"/>
+      <c r="O93" s="0"/>
+      <c r="P93" s="0"/>
+      <c r="Q93" s="0"/>
+      <c r="R93" s="0"/>
+      <c r="S93" s="0"/>
+      <c r="T93" s="0"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="0"/>
+      <c r="W93" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X93" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y93" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
+        </is>
+      </c>
+      <c r="Z93" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA93" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB93" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6582,9 +8836,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B95" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIRO PANEL DIRTY", "", "", ""]</t>
+      <c r="B95" s="0"/>
+      <c r="C95" s="0"/>
+      <c r="D95" s="0"/>
+      <c r="E95" s="0"/>
+      <c r="F95" s="0"/>
+      <c r="G95" s="0"/>
+      <c r="H95" s="0"/>
+      <c r="I95" s="0"/>
+      <c r="J95" s="0"/>
+      <c r="K95" s="0"/>
+      <c r="L95" s="0"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="0"/>
+      <c r="O95" s="0"/>
+      <c r="P95" s="0"/>
+      <c r="Q95" s="0"/>
+      <c r="R95" s="0"/>
+      <c r="S95" s="0"/>
+      <c r="T95" s="0"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="0"/>
+      <c r="W95" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X95" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y95" s="0" t="inlineStr">
+        <is>
+          <t>INTERIRO PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z95" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA95" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB95" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7154,9 +9454,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B101" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM GASKET MISSING 8\"", "", "", ""]</t>
+      <c r="B101" s="0"/>
+      <c r="C101" s="0"/>
+      <c r="D101" s="0"/>
+      <c r="E101" s="0"/>
+      <c r="F101" s="0"/>
+      <c r="G101" s="0"/>
+      <c r="H101" s="0"/>
+      <c r="I101" s="0"/>
+      <c r="J101" s="0"/>
+      <c r="K101" s="0"/>
+      <c r="L101" s="0"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="0"/>
+      <c r="O101" s="0"/>
+      <c r="P101" s="0"/>
+      <c r="Q101" s="0"/>
+      <c r="R101" s="0"/>
+      <c r="S101" s="0"/>
+      <c r="T101" s="0"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="0"/>
+      <c r="W101" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X101" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y101" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR BOTTOM GASKET MISSING 8"</t>
+        </is>
+      </c>
+      <c r="Z101" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA101" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB101" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_42_.xlsx
+++ b/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_42_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:45</t>
+          <t>Total number of containers:45</t>
         </is>
       </c>
     </row>
